--- a/data8.xlsx
+++ b/data8.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$2:$R$152</definedName>
   </definedNames>
-  <calcPr calcId="144525" calcMode="autoNoTable"/>
+  <calcPr calcId="124519" calcMode="autoNoTable"/>
 </workbook>
 </file>
 
@@ -3630,8 +3630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:R152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3737,7 +3737,6 @@
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1">
       <c r="A4" s="12">
-        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -3781,7 +3780,6 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="19">
-        <f t="shared" ref="A5:A68" si="0">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -3825,7 +3823,6 @@
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1">
       <c r="A6" s="19">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -3866,7 +3863,6 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="19">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -3911,7 +3907,6 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="19">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -3958,7 +3953,6 @@
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1">
       <c r="A9" s="19">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -4000,7 +3994,6 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="19">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -4047,7 +4040,6 @@
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1">
       <c r="A11" s="19">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -4091,7 +4083,6 @@
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1">
       <c r="A12" s="19">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -4135,7 +4126,6 @@
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1">
       <c r="A13" s="19">
-        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -4176,7 +4166,6 @@
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1">
       <c r="A14" s="19">
-        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -4220,7 +4209,6 @@
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1">
       <c r="A15" s="19">
-        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -4264,7 +4252,6 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="19">
-        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -4308,7 +4295,6 @@
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1">
       <c r="A17" s="19">
-        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -4352,7 +4338,6 @@
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1">
       <c r="A18" s="19">
-        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -4396,7 +4381,6 @@
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1">
       <c r="A19" s="19">
-        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -4440,7 +4424,6 @@
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1">
       <c r="A20" s="19">
-        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20" s="11" t="s">
@@ -4484,7 +4467,6 @@
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1">
       <c r="A21" s="19">
-        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -4528,7 +4510,6 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="19">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22" s="11" t="s">
@@ -4572,7 +4553,6 @@
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1">
       <c r="A23" s="19">
-        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23" s="11" t="s">
@@ -4613,7 +4593,6 @@
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1">
       <c r="A24" s="19">
-        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -4654,7 +4633,6 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="19">
-        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -4701,7 +4679,6 @@
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1">
       <c r="A26" s="19">
-        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -4742,7 +4719,6 @@
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1">
       <c r="A27" s="19">
-        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B27" s="11" t="s">
@@ -4783,7 +4759,6 @@
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1">
       <c r="A28" s="19">
-        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -4824,7 +4799,6 @@
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1">
       <c r="A29" s="19">
-        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B29" s="11" t="s">
@@ -4865,7 +4839,6 @@
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1">
       <c r="A30" s="19">
-        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -4903,7 +4876,6 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="19">
-        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B31" s="11" t="s">
@@ -4950,7 +4922,6 @@
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1">
       <c r="A32" s="19">
-        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B32" s="11" t="s">
@@ -4991,7 +4962,6 @@
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1">
       <c r="A33" s="19">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B33" s="11" t="s">
@@ -5032,7 +5002,6 @@
     </row>
     <row r="34" spans="1:18" ht="15" customHeight="1">
       <c r="A34" s="19">
-        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B34" s="11" t="s">
@@ -5070,7 +5039,6 @@
     </row>
     <row r="35" spans="1:18" ht="15" customHeight="1">
       <c r="A35" s="19">
-        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B35" s="11" t="s">
@@ -5107,7 +5075,6 @@
     </row>
     <row r="36" spans="1:18" ht="15" customHeight="1">
       <c r="A36" s="19">
-        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B36" s="11" t="s">
@@ -5148,7 +5115,6 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="19">
-        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -5195,7 +5161,6 @@
     </row>
     <row r="38" spans="1:18" ht="15" customHeight="1">
       <c r="A38" s="19">
-        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -5236,7 +5201,6 @@
     </row>
     <row r="39" spans="1:18" ht="15" customHeight="1">
       <c r="A39" s="19">
-        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B39" s="11" t="s">
@@ -5277,7 +5241,6 @@
     </row>
     <row r="40" spans="1:18" ht="15" customHeight="1">
       <c r="A40" s="19">
-        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B40" s="11" t="s">
@@ -5318,7 +5281,6 @@
     </row>
     <row r="41" spans="1:18" ht="15" customHeight="1">
       <c r="A41" s="19">
-        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B41" s="11" t="s">
@@ -5359,7 +5321,6 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="19">
-        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B42" s="14" t="s">
@@ -5406,7 +5367,6 @@
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1">
       <c r="A43" s="19">
-        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B43" s="14" t="s">
@@ -5447,7 +5407,6 @@
     </row>
     <row r="44" spans="1:18" ht="15" customHeight="1">
       <c r="A44" s="19">
-        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B44" s="14" t="s">
@@ -5488,7 +5447,6 @@
     </row>
     <row r="45" spans="1:18" ht="15" customHeight="1">
       <c r="A45" s="19">
-        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B45" s="14" t="s">
@@ -5529,7 +5487,6 @@
     </row>
     <row r="46" spans="1:18" ht="15" customHeight="1">
       <c r="A46" s="19">
-        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B46" s="14" t="s">
@@ -5570,7 +5527,6 @@
     </row>
     <row r="47" spans="1:18" ht="15" customHeight="1">
       <c r="A47" s="19">
-        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B47" s="14" t="s">
@@ -5611,7 +5567,6 @@
     </row>
     <row r="48" spans="1:18" ht="15" customHeight="1">
       <c r="A48" s="19">
-        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B48" s="14" t="s">
@@ -5649,7 +5604,6 @@
     </row>
     <row r="49" spans="1:18" ht="15" customHeight="1">
       <c r="A49" s="19">
-        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B49" s="14" t="s">
@@ -5690,7 +5644,6 @@
     </row>
     <row r="50" spans="1:18" ht="15" customHeight="1">
       <c r="A50" s="19">
-        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B50" s="14" t="s">
@@ -5729,9 +5682,8 @@
       <c r="Q50" s="27"/>
       <c r="R50" s="2"/>
     </row>
-    <row r="51" spans="1:18" ht="28.8">
+    <row r="51" spans="1:18" ht="16.8" customHeight="1">
       <c r="A51" s="19">
-        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B51" s="14" t="s">
@@ -5781,7 +5733,6 @@
     </row>
     <row r="52" spans="1:18" ht="15" customHeight="1">
       <c r="A52" s="19">
-        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B52" s="14" t="s">
@@ -5822,7 +5773,6 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="19">
-        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B53" s="14" t="s">
@@ -5869,7 +5819,6 @@
     </row>
     <row r="54" spans="1:18" ht="15" customHeight="1">
       <c r="A54" s="19">
-        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -5913,7 +5862,6 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="19">
-        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B55" s="14" t="s">
@@ -5960,7 +5908,6 @@
     </row>
     <row r="56" spans="1:18" ht="15" customHeight="1">
       <c r="A56" s="19">
-        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B56" s="14" t="s">
@@ -6004,7 +5951,6 @@
     </row>
     <row r="57" spans="1:18" ht="15" customHeight="1">
       <c r="A57" s="19">
-        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B57" s="14" t="s">
@@ -6048,7 +5994,6 @@
     </row>
     <row r="58" spans="1:18" ht="15" customHeight="1">
       <c r="A58" s="19">
-        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B58" s="14" t="s">
@@ -6089,7 +6034,6 @@
     </row>
     <row r="59" spans="1:18" ht="15" customHeight="1">
       <c r="A59" s="19">
-        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B59" s="14" t="s">
@@ -6133,7 +6077,6 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="19">
-        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B60" s="14" t="s">
@@ -6180,7 +6123,6 @@
     </row>
     <row r="61" spans="1:18" ht="15" customHeight="1">
       <c r="A61" s="19">
-        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B61" s="14" t="s">
@@ -6224,7 +6166,6 @@
     </row>
     <row r="62" spans="1:18" ht="15" customHeight="1">
       <c r="A62" s="19">
-        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B62" s="14" t="s">
@@ -6268,7 +6209,6 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="19">
-        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B63" s="14" t="s">
@@ -6314,7 +6254,6 @@
     </row>
     <row r="64" spans="1:18" ht="15" customHeight="1">
       <c r="A64" s="19">
-        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B64" s="14" t="s">
@@ -6358,7 +6297,6 @@
     </row>
     <row r="65" spans="1:18" ht="15" customHeight="1">
       <c r="A65" s="19">
-        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B65" s="14" t="s">
@@ -6402,7 +6340,6 @@
     </row>
     <row r="66" spans="1:18" ht="15" customHeight="1">
       <c r="A66" s="19">
-        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B66" s="14" t="s">
@@ -6429,7 +6366,7 @@
         <v>253597.5</v>
       </c>
       <c r="K66" s="15">
-        <f t="shared" ref="K66:K67" si="1">G66</f>
+        <f t="shared" ref="K66:K67" si="0">G66</f>
         <v>22104.225000000002</v>
       </c>
       <c r="M66" s="15">
@@ -6443,7 +6380,6 @@
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="19">
-        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -6470,7 +6406,7 @@
         <v>355036.5</v>
       </c>
       <c r="K67" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>27642.346875000003</v>
       </c>
       <c r="L67" s="9">
@@ -6490,7 +6426,6 @@
     </row>
     <row r="68" spans="1:18" ht="15" customHeight="1">
       <c r="A68" s="19">
-        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="B68" s="14" t="s">
@@ -6534,7 +6469,6 @@
     </row>
     <row r="69" spans="1:18" ht="15" customHeight="1">
       <c r="A69" s="19">
-        <f t="shared" ref="A69:A132" si="2">A68+1</f>
         <v>67</v>
       </c>
       <c r="B69" s="14" t="s">
@@ -6575,7 +6509,6 @@
     </row>
     <row r="70" spans="1:18" ht="15" customHeight="1">
       <c r="A70" s="19">
-        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="B70" s="14" t="s">
@@ -6619,7 +6552,6 @@
     </row>
     <row r="71" spans="1:18" ht="15" customHeight="1">
       <c r="A71" s="19">
-        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="B71" s="14" t="s">
@@ -6660,7 +6592,6 @@
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="19">
-        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="B72" s="14" t="s">
@@ -6707,7 +6638,6 @@
     </row>
     <row r="73" spans="1:18" ht="15" customHeight="1">
       <c r="A73" s="19">
-        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="B73" s="14" t="s">
@@ -6748,7 +6678,6 @@
     </row>
     <row r="74" spans="1:18" ht="15" customHeight="1">
       <c r="A74" s="19">
-        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="B74" s="14" t="s">
@@ -6786,7 +6715,6 @@
     </row>
     <row r="75" spans="1:18" ht="15" customHeight="1">
       <c r="A75" s="19">
-        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="B75" s="14" t="s">
@@ -6827,7 +6755,6 @@
     </row>
     <row r="76" spans="1:18" ht="15" customHeight="1">
       <c r="A76" s="19">
-        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="B76" s="14" t="s">
@@ -6854,7 +6781,7 @@
         <v>253597.5</v>
       </c>
       <c r="K76" s="15">
-        <f t="shared" ref="K76:K78" si="3">G76</f>
+        <f t="shared" ref="K76:K78" si="1">G76</f>
         <v>18116.777250000003</v>
       </c>
       <c r="M76" s="15">
@@ -6865,7 +6792,6 @@
     </row>
     <row r="77" spans="1:18" ht="15" customHeight="1">
       <c r="A77" s="19">
-        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="B77" s="14" t="s">
@@ -6892,7 +6818,7 @@
         <v>202878</v>
       </c>
       <c r="K77" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>16996.845937500002</v>
       </c>
       <c r="M77" s="15">
@@ -6903,7 +6829,6 @@
     </row>
     <row r="78" spans="1:18" ht="15" customHeight="1">
       <c r="A78" s="19">
-        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="B78" s="14" t="s">
@@ -6930,7 +6855,7 @@
         <v>223165.8</v>
       </c>
       <c r="K78" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>20135.115000000002</v>
       </c>
       <c r="M78" s="15">
@@ -6941,7 +6866,6 @@
     </row>
     <row r="79" spans="1:18" ht="15" customHeight="1">
       <c r="A79" s="19">
-        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="B79" s="14" t="s">
@@ -6982,7 +6906,6 @@
     </row>
     <row r="80" spans="1:18">
       <c r="A80" s="19">
-        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="B80" s="14" t="s">
@@ -7029,7 +6952,6 @@
     </row>
     <row r="81" spans="1:18" ht="15" customHeight="1">
       <c r="A81" s="19">
-        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="B81" s="14" t="s">
@@ -7070,7 +6992,6 @@
     </row>
     <row r="82" spans="1:18" ht="15" customHeight="1">
       <c r="A82" s="19">
-        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="B82" s="14" t="s">
@@ -7111,7 +7032,6 @@
     </row>
     <row r="83" spans="1:18" ht="15" customHeight="1">
       <c r="A83" s="19">
-        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="B83" s="14" t="s">
@@ -7152,7 +7072,6 @@
     </row>
     <row r="84" spans="1:18" ht="15" customHeight="1">
       <c r="A84" s="19">
-        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="B84" s="14" t="s">
@@ -7193,7 +7112,6 @@
     </row>
     <row r="85" spans="1:18">
       <c r="A85" s="19">
-        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="B85" s="14" t="s">
@@ -7240,7 +7158,6 @@
     </row>
     <row r="86" spans="1:18" ht="15" customHeight="1">
       <c r="A86" s="19">
-        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="B86" s="14" t="s">
@@ -7281,7 +7198,6 @@
     </row>
     <row r="87" spans="1:18" ht="15" customHeight="1">
       <c r="A87" s="19">
-        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="B87" s="14" t="s">
@@ -7322,7 +7238,6 @@
     </row>
     <row r="88" spans="1:18" ht="15" customHeight="1">
       <c r="A88" s="19">
-        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="B88" s="14" t="s">
@@ -7363,7 +7278,6 @@
     </row>
     <row r="89" spans="1:18" ht="15" customHeight="1">
       <c r="A89" s="19">
-        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="B89" s="14" t="s">
@@ -7404,7 +7318,6 @@
     </row>
     <row r="90" spans="1:18" ht="15" customHeight="1">
       <c r="A90" s="19">
-        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="B90" s="14" t="s">
@@ -7445,7 +7358,6 @@
     </row>
     <row r="91" spans="1:18">
       <c r="A91" s="19">
-        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="B91" s="14" t="s">
@@ -7489,7 +7401,6 @@
     </row>
     <row r="92" spans="1:18" ht="15" customHeight="1">
       <c r="A92" s="19">
-        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="B92" s="14" t="s">
@@ -7530,7 +7441,6 @@
     </row>
     <row r="93" spans="1:18" ht="15" customHeight="1">
       <c r="A93" s="19">
-        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="B93" s="14" t="s">
@@ -7568,7 +7478,6 @@
     </row>
     <row r="94" spans="1:18" ht="15" customHeight="1">
       <c r="A94" s="19">
-        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="B94" s="14" t="s">
@@ -7609,7 +7518,6 @@
     </row>
     <row r="95" spans="1:18" ht="15" customHeight="1">
       <c r="A95" s="19">
-        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="B95" s="14" t="s">
@@ -7650,7 +7558,6 @@
     </row>
     <row r="96" spans="1:18" ht="15" customHeight="1">
       <c r="A96" s="19">
-        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="B96" s="14" t="s">
@@ -7688,7 +7595,6 @@
     </row>
     <row r="97" spans="1:18" ht="15" customHeight="1">
       <c r="A97" s="19">
-        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="B97" s="14" t="s">
@@ -7729,7 +7635,6 @@
     </row>
     <row r="98" spans="1:18" ht="15" customHeight="1">
       <c r="A98" s="19">
-        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="B98" s="14" t="s">
@@ -7770,7 +7675,6 @@
     </row>
     <row r="99" spans="1:18" ht="15" customHeight="1">
       <c r="A99" s="19">
-        <f t="shared" si="2"/>
         <v>97</v>
       </c>
       <c r="B99" s="14" t="s">
@@ -7811,7 +7715,6 @@
     </row>
     <row r="100" spans="1:18" ht="15" customHeight="1">
       <c r="A100" s="19">
-        <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="B100" s="14" t="s">
@@ -7838,7 +7741,7 @@
         <v>71007.3</v>
       </c>
       <c r="K100" s="15">
-        <f t="shared" ref="K100:K101" si="4">G100</f>
+        <f t="shared" ref="K100:K101" si="2">G100</f>
         <v>18970.058250000002</v>
       </c>
       <c r="M100" s="15">
@@ -7849,7 +7752,6 @@
     </row>
     <row r="101" spans="1:18" ht="15" customHeight="1">
       <c r="A101" s="19">
-        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="B101" s="14" t="s">
@@ -7876,7 +7778,7 @@
         <v>304317</v>
       </c>
       <c r="K101" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>22575.990937500002</v>
       </c>
       <c r="M101" s="15">
@@ -7887,7 +7789,6 @@
     </row>
     <row r="102" spans="1:18" ht="15" customHeight="1">
       <c r="A102" s="19">
-        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="B102" s="14" t="s">
@@ -7928,7 +7829,6 @@
     </row>
     <row r="103" spans="1:18" ht="15" customHeight="1">
       <c r="A103" s="19">
-        <f t="shared" si="2"/>
         <v>101</v>
       </c>
       <c r="B103" s="14" t="s">
@@ -7969,7 +7869,6 @@
     </row>
     <row r="104" spans="1:18" ht="15" customHeight="1">
       <c r="A104" s="19">
-        <f t="shared" si="2"/>
         <v>102</v>
       </c>
       <c r="B104" s="14" t="s">
@@ -8010,7 +7909,6 @@
     </row>
     <row r="105" spans="1:18" ht="15" customHeight="1">
       <c r="A105" s="19">
-        <f t="shared" si="2"/>
         <v>103</v>
       </c>
       <c r="B105" s="14" t="s">
@@ -8051,7 +7949,6 @@
     </row>
     <row r="106" spans="1:18" ht="15" customHeight="1">
       <c r="A106" s="19">
-        <f t="shared" si="2"/>
         <v>104</v>
       </c>
       <c r="B106" s="14" t="s">
@@ -8092,7 +7989,6 @@
     </row>
     <row r="107" spans="1:18" ht="15" customHeight="1">
       <c r="A107" s="19">
-        <f t="shared" si="2"/>
         <v>105</v>
       </c>
       <c r="B107" s="14" t="s">
@@ -8133,7 +8029,6 @@
     </row>
     <row r="108" spans="1:18" ht="15" customHeight="1">
       <c r="A108" s="19">
-        <f t="shared" si="2"/>
         <v>106</v>
       </c>
       <c r="B108" s="14" t="s">
@@ -8174,7 +8069,6 @@
     </row>
     <row r="109" spans="1:18" ht="15" customHeight="1">
       <c r="A109" s="19">
-        <f t="shared" si="2"/>
         <v>107</v>
       </c>
       <c r="B109" s="14" t="s">
@@ -8215,7 +8109,6 @@
     </row>
     <row r="110" spans="1:18" ht="15" customHeight="1">
       <c r="A110" s="19">
-        <f t="shared" si="2"/>
         <v>108</v>
       </c>
       <c r="B110" s="14" t="s">
@@ -8256,7 +8149,6 @@
     </row>
     <row r="111" spans="1:18" ht="15" customHeight="1">
       <c r="A111" s="19">
-        <f t="shared" si="2"/>
         <v>109</v>
       </c>
       <c r="B111" s="14" t="s">
@@ -8297,7 +8189,6 @@
     </row>
     <row r="112" spans="1:18" ht="15" customHeight="1">
       <c r="A112" s="19">
-        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="B112" s="14" t="s">
@@ -8338,7 +8229,6 @@
     </row>
     <row r="113" spans="1:18" ht="15" customHeight="1">
       <c r="A113" s="19">
-        <f t="shared" si="2"/>
         <v>111</v>
       </c>
       <c r="B113" s="14" t="s">
@@ -8365,7 +8255,7 @@
         <v>405756</v>
       </c>
       <c r="K113" s="15">
-        <f t="shared" ref="K113:K114" si="5">G113</f>
+        <f t="shared" ref="K113:K114" si="3">G113</f>
         <v>22924.687500000004</v>
       </c>
       <c r="M113" s="15">
@@ -8376,7 +8266,6 @@
     </row>
     <row r="114" spans="1:18" ht="15" customHeight="1">
       <c r="A114" s="19">
-        <f t="shared" si="2"/>
         <v>112</v>
       </c>
       <c r="B114" s="14" t="s">
@@ -8403,7 +8292,7 @@
         <v>273885.3</v>
       </c>
       <c r="K114" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>20279.721515625002</v>
       </c>
       <c r="M114" s="15">
@@ -8414,7 +8303,6 @@
     </row>
     <row r="115" spans="1:18" ht="15" customHeight="1">
       <c r="A115" s="19">
-        <f t="shared" si="2"/>
         <v>113</v>
       </c>
       <c r="B115" s="14" t="s">
@@ -8455,7 +8343,6 @@
     </row>
     <row r="116" spans="1:18" s="8" customFormat="1">
       <c r="A116" s="19">
-        <f t="shared" si="2"/>
         <v>114</v>
       </c>
       <c r="B116" s="6" t="s">
@@ -8482,7 +8369,7 @@
         <v>152158.5</v>
       </c>
       <c r="K116" s="15">
-        <f t="shared" ref="K116:K117" si="6">G116</f>
+        <f t="shared" ref="K116:K117" si="4">G116</f>
         <v>13899.6</v>
       </c>
       <c r="L116" s="4">
@@ -8500,7 +8387,6 @@
     </row>
     <row r="117" spans="1:18" ht="15" customHeight="1">
       <c r="A117" s="19">
-        <f t="shared" si="2"/>
         <v>115</v>
       </c>
       <c r="B117" s="14" t="s">
@@ -8527,7 +8413,7 @@
         <v>131870.69999999998</v>
       </c>
       <c r="K117" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>14822.620312500001</v>
       </c>
       <c r="M117" s="15">
@@ -8538,7 +8424,6 @@
     </row>
     <row r="118" spans="1:18" ht="15" customHeight="1">
       <c r="A118" s="19">
-        <f t="shared" si="2"/>
         <v>116</v>
       </c>
       <c r="B118" s="14" t="s">
@@ -8579,7 +8464,6 @@
     </row>
     <row r="119" spans="1:18" ht="15" customHeight="1">
       <c r="A119" s="19">
-        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="B119" s="14" t="s">
@@ -8606,7 +8490,7 @@
         <v>167786.36408987376</v>
       </c>
       <c r="K119" s="15">
-        <f t="shared" ref="K119:K121" si="7">G119</f>
+        <f t="shared" ref="K119:K121" si="5">G119</f>
         <v>19745.395312500001</v>
       </c>
       <c r="M119" s="15">
@@ -8617,7 +8501,6 @@
     </row>
     <row r="120" spans="1:18" ht="15" customHeight="1">
       <c r="A120" s="19">
-        <f t="shared" si="2"/>
         <v>118</v>
       </c>
       <c r="B120" s="14" t="s">
@@ -8644,7 +8527,7 @@
         <v>159189.46858261671</v>
       </c>
       <c r="K120" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>14145.738750000002</v>
       </c>
       <c r="M120" s="15">
@@ -8655,7 +8538,6 @@
     </row>
     <row r="121" spans="1:18" ht="15" customHeight="1">
       <c r="A121" s="19">
-        <f t="shared" si="2"/>
         <v>119</v>
       </c>
       <c r="B121" s="14" t="s">
@@ -8682,7 +8564,7 @@
         <v>56389.134484590744</v>
       </c>
       <c r="K121" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>17899.354687500003</v>
       </c>
       <c r="M121" s="15">
@@ -8693,7 +8575,6 @@
     </row>
     <row r="122" spans="1:18" ht="15" customHeight="1">
       <c r="A122" s="19">
-        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="B122" s="14" t="s">
@@ -8734,7 +8615,6 @@
     </row>
     <row r="123" spans="1:18" ht="15" customHeight="1">
       <c r="A123" s="19">
-        <f t="shared" si="2"/>
         <v>121</v>
       </c>
       <c r="B123" s="14" t="s">
@@ -8775,7 +8655,6 @@
     </row>
     <row r="124" spans="1:18" ht="15" customHeight="1">
       <c r="A124" s="19">
-        <f t="shared" si="2"/>
         <v>122</v>
       </c>
       <c r="B124" s="14" t="s">
@@ -8813,7 +8692,6 @@
     </row>
     <row r="125" spans="1:18" ht="15" customHeight="1">
       <c r="A125" s="19">
-        <f t="shared" si="2"/>
         <v>123</v>
       </c>
       <c r="B125" s="14" t="s">
@@ -8854,7 +8732,6 @@
     </row>
     <row r="126" spans="1:18" ht="15" customHeight="1">
       <c r="A126" s="19">
-        <f t="shared" si="2"/>
         <v>124</v>
       </c>
       <c r="B126" s="14" t="s">
@@ -8895,7 +8772,6 @@
     </row>
     <row r="127" spans="1:18" ht="15" customHeight="1">
       <c r="A127" s="19">
-        <f t="shared" si="2"/>
         <v>125</v>
       </c>
       <c r="B127" s="14" t="s">
@@ -8936,7 +8812,6 @@
     </row>
     <row r="128" spans="1:18" ht="15" customHeight="1">
       <c r="A128" s="19">
-        <f t="shared" si="2"/>
         <v>126</v>
       </c>
       <c r="B128" s="17" t="s">
@@ -8963,7 +8838,7 @@
         <v>16864.488882341207</v>
       </c>
       <c r="K128" s="15">
-        <f t="shared" ref="K128:K132" si="8">G128</f>
+        <f t="shared" ref="K128:K132" si="6">G128</f>
         <v>7438.4578125000007</v>
       </c>
       <c r="M128" s="15">
@@ -8974,7 +8849,6 @@
     </row>
     <row r="129" spans="1:18">
       <c r="A129" s="19">
-        <f t="shared" si="2"/>
         <v>127</v>
       </c>
       <c r="B129" s="17" t="s">
@@ -9001,7 +8875,7 @@
         <v>36000</v>
       </c>
       <c r="K129" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7746.1312500000004</v>
       </c>
       <c r="L129" s="9">
@@ -9018,7 +8892,6 @@
     </row>
     <row r="130" spans="1:18">
       <c r="A130" s="19">
-        <f t="shared" si="2"/>
         <v>128</v>
       </c>
       <c r="B130" s="17" t="s">
@@ -9045,7 +8918,7 @@
         <v>36000</v>
       </c>
       <c r="K130" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7438.4578125000007</v>
       </c>
       <c r="L130" s="9">
@@ -9062,7 +8935,6 @@
     </row>
     <row r="131" spans="1:18" ht="15" customHeight="1">
       <c r="A131" s="19">
-        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="B131" s="17" t="s">
@@ -9089,7 +8961,7 @@
         <v>19744.711988357249</v>
       </c>
       <c r="K131" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>8156.3625000000011</v>
       </c>
       <c r="M131" s="15">
@@ -9100,7 +8972,6 @@
     </row>
     <row r="132" spans="1:18" ht="15" customHeight="1">
       <c r="A132" s="19">
-        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="B132" s="17" t="s">
@@ -9127,7 +8998,7 @@
         <v>20210.48597508555</v>
       </c>
       <c r="K132" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>8412.7570312500011</v>
       </c>
       <c r="M132" s="15">
@@ -9138,7 +9009,6 @@
     </row>
     <row r="133" spans="1:18" ht="15" customHeight="1">
       <c r="A133" s="19">
-        <f t="shared" ref="A133:A152" si="9">A132+1</f>
         <v>131</v>
       </c>
       <c r="B133" s="17" t="s">
@@ -9179,7 +9049,6 @@
     </row>
     <row r="134" spans="1:18" ht="15" customHeight="1">
       <c r="A134" s="19">
-        <f t="shared" si="9"/>
         <v>132</v>
       </c>
       <c r="B134" s="17" t="s">
@@ -9217,7 +9086,6 @@
     </row>
     <row r="135" spans="1:18" ht="15" customHeight="1">
       <c r="A135" s="19">
-        <f t="shared" si="9"/>
         <v>133</v>
       </c>
       <c r="B135" s="17" t="s">
@@ -9258,7 +9126,6 @@
     </row>
     <row r="136" spans="1:18" ht="15" customHeight="1">
       <c r="A136" s="19">
-        <f t="shared" si="9"/>
         <v>134</v>
       </c>
       <c r="B136" s="17" t="s">
@@ -9285,7 +9152,7 @@
         <v>25612.313737217894</v>
       </c>
       <c r="K136" s="15">
-        <f t="shared" ref="K136:K139" si="10">G136</f>
+        <f t="shared" ref="K136:K139" si="7">G136</f>
         <v>7951.2468750000007</v>
       </c>
       <c r="M136" s="15">
@@ -9296,7 +9163,6 @@
     </row>
     <row r="137" spans="1:18" ht="15" customHeight="1">
       <c r="A137" s="19">
-        <f t="shared" si="9"/>
         <v>135</v>
       </c>
       <c r="B137" s="17" t="s">
@@ -9323,7 +9189,7 @@
         <v>36552.651337351621</v>
       </c>
       <c r="K137" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>12258.675000000001</v>
       </c>
       <c r="M137" s="15">
@@ -9334,7 +9200,6 @@
     </row>
     <row r="138" spans="1:18" ht="15" customHeight="1">
       <c r="A138" s="19">
-        <f t="shared" si="9"/>
         <v>136</v>
       </c>
       <c r="B138" s="17" t="s">
@@ -9361,7 +9226,7 @@
         <v>18865.61423263311</v>
       </c>
       <c r="K138" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>8258.9203125000004</v>
       </c>
       <c r="M138" s="15">
@@ -9372,7 +9237,6 @@
     </row>
     <row r="139" spans="1:18" ht="15" customHeight="1">
       <c r="A139" s="19">
-        <f t="shared" si="9"/>
         <v>137</v>
       </c>
       <c r="B139" s="17" t="s">
@@ -9399,7 +9263,7 @@
         <v>48983.553605747053</v>
       </c>
       <c r="K139" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>11720.246484375</v>
       </c>
       <c r="M139" s="15">
@@ -9410,7 +9274,6 @@
     </row>
     <row r="140" spans="1:18" ht="15" customHeight="1">
       <c r="A140" s="19">
-        <f t="shared" si="9"/>
         <v>138</v>
       </c>
       <c r="B140" s="17" t="s">
@@ -9451,7 +9314,6 @@
     </row>
     <row r="141" spans="1:18" ht="15" customHeight="1">
       <c r="A141" s="19">
-        <f t="shared" si="9"/>
         <v>139</v>
       </c>
       <c r="B141" s="17" t="s">
@@ -9492,7 +9354,6 @@
     </row>
     <row r="142" spans="1:18" ht="15" customHeight="1">
       <c r="A142" s="19">
-        <f t="shared" si="9"/>
         <v>140</v>
       </c>
       <c r="B142" s="17" t="s">
@@ -9519,7 +9380,7 @@
         <v>10661.182806758536</v>
       </c>
       <c r="K142" s="15">
-        <f t="shared" ref="K142:K145" si="11">G142</f>
+        <f t="shared" ref="K142:K145" si="8">G142</f>
         <v>8361.4781250000015</v>
       </c>
       <c r="M142" s="15">
@@ -9530,7 +9391,6 @@
     </row>
     <row r="143" spans="1:18">
       <c r="A143" s="19">
-        <f t="shared" si="9"/>
         <v>141</v>
       </c>
       <c r="B143" s="17" t="s">
@@ -9557,7 +9417,7 @@
         <v>24000</v>
       </c>
       <c r="K143" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>7438.4578125000007</v>
       </c>
       <c r="L143" s="9">
@@ -9574,7 +9434,6 @@
     </row>
     <row r="144" spans="1:18" ht="15" customHeight="1">
       <c r="A144" s="19">
-        <f t="shared" si="9"/>
         <v>142</v>
       </c>
       <c r="B144" s="17" t="s">
@@ -9601,7 +9460,7 @@
         <v>11998.563026036943</v>
       </c>
       <c r="K144" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>11233.096875000001</v>
       </c>
       <c r="M144" s="15">
@@ -9612,7 +9471,6 @@
     </row>
     <row r="145" spans="1:18" ht="15" customHeight="1">
       <c r="A145" s="19">
-        <f t="shared" si="9"/>
         <v>143</v>
       </c>
       <c r="B145" s="17" t="s">
@@ -9639,7 +9497,7 @@
         <v>4416.5873540904122</v>
       </c>
       <c r="K145" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>7746.1312500000004</v>
       </c>
       <c r="M145" s="15">
@@ -9650,7 +9508,6 @@
     </row>
     <row r="146" spans="1:18" ht="15" customHeight="1">
       <c r="A146" s="19">
-        <f t="shared" si="9"/>
         <v>144</v>
       </c>
       <c r="B146" s="17" t="s">
@@ -9691,7 +9548,6 @@
     </row>
     <row r="147" spans="1:18">
       <c r="A147" s="19">
-        <f t="shared" si="9"/>
         <v>145</v>
       </c>
       <c r="B147" s="17" t="s">
@@ -9718,7 +9574,7 @@
         <v>24000</v>
       </c>
       <c r="K147" s="15">
-        <f t="shared" ref="K147:K152" si="12">G147</f>
+        <f t="shared" ref="K147:K152" si="9">G147</f>
         <v>7643.5734375000002</v>
       </c>
       <c r="L147" s="9">
@@ -9735,7 +9591,6 @@
     </row>
     <row r="148" spans="1:18" ht="15" customHeight="1">
       <c r="A148" s="19">
-        <f t="shared" si="9"/>
         <v>146</v>
       </c>
       <c r="B148" s="17" t="s">
@@ -9762,7 +9617,7 @@
         <v>11129.641892991816</v>
       </c>
       <c r="K148" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>11489.491406250001</v>
       </c>
       <c r="M148" s="15">
@@ -9773,7 +9628,6 @@
     </row>
     <row r="149" spans="1:18" ht="15" customHeight="1">
       <c r="A149" s="19">
-        <f t="shared" si="9"/>
         <v>147</v>
       </c>
       <c r="B149" s="17" t="s">
@@ -9800,7 +9654,7 @@
         <v>12656.966624583238</v>
       </c>
       <c r="K149" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>12771.464062500001</v>
       </c>
       <c r="M149" s="15">
@@ -9811,7 +9665,6 @@
     </row>
     <row r="150" spans="1:18" ht="15" customHeight="1">
       <c r="A150" s="19">
-        <f t="shared" si="9"/>
         <v>148</v>
       </c>
       <c r="B150" s="17" t="s">
@@ -9838,7 +9691,7 @@
         <v>10505.294147241761</v>
       </c>
       <c r="K150" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>10207.518750000001</v>
       </c>
       <c r="M150" s="15">
@@ -9849,7 +9702,6 @@
     </row>
     <row r="151" spans="1:18" ht="15" customHeight="1">
       <c r="A151" s="19">
-        <f t="shared" si="9"/>
         <v>149</v>
       </c>
       <c r="B151" s="17" t="s">
@@ -9876,7 +9728,7 @@
         <v>6507.419872185641</v>
       </c>
       <c r="K151" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>7541.0156250000009</v>
       </c>
       <c r="M151" s="15">
@@ -9887,7 +9739,6 @@
     </row>
     <row r="152" spans="1:18" ht="15" customHeight="1">
       <c r="A152" s="19">
-        <f t="shared" si="9"/>
         <v>150</v>
       </c>
       <c r="B152" s="17" t="s">
@@ -9914,7 +9765,7 @@
         <v>6719.3707338223667</v>
       </c>
       <c r="K152" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>7746.1312500000004</v>
       </c>
       <c r="M152" s="15">
@@ -9935,7 +9786,7 @@
   <dimension ref="B3:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/data8.xlsx
+++ b/data8.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="19032" windowHeight="11760"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="19032" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="הנחות" sheetId="2" r:id="rId2"/>
+    <sheet name="dis" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -1579,7 +1579,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="86">
+  <fills count="88">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2045,6 +2045,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2902,7 +2914,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2945,12 +2957,19 @@
     <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="378" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="96" fillId="86" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="86" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="86" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="96" fillId="86" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="86" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="86" borderId="0" xfId="378" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="87" borderId="0" xfId="378" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="379">
     <cellStyle name="$" xfId="2"/>
@@ -3630,8 +3649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:R152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="A153" sqref="A153"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3643,7 +3662,8 @@
     <col min="7" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" customWidth="1"/>
     <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5546875" customWidth="1"/>
     <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -3732,7 +3752,7 @@
       <c r="M3" s="15">
         <v>0</v>
       </c>
-      <c r="Q3" s="27"/>
+      <c r="Q3" s="22"/>
       <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1">
@@ -3775,7 +3795,7 @@
       <c r="M4" s="15">
         <v>0</v>
       </c>
-      <c r="Q4" s="27"/>
+      <c r="Q4" s="22"/>
       <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18">
@@ -3818,7 +3838,7 @@
       <c r="O5" t="s">
         <v>266</v>
       </c>
-      <c r="Q5" s="27"/>
+      <c r="Q5" s="22"/>
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1">
@@ -3858,7 +3878,7 @@
       <c r="M6" s="15">
         <v>0</v>
       </c>
-      <c r="Q6" s="27"/>
+      <c r="Q6" s="22"/>
       <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:18">
@@ -3902,7 +3922,7 @@
       <c r="O7" t="s">
         <v>266</v>
       </c>
-      <c r="Q7" s="27"/>
+      <c r="Q7" s="22"/>
       <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:18">
@@ -3948,7 +3968,7 @@
       <c r="O8" t="s">
         <v>267</v>
       </c>
-      <c r="Q8" s="27"/>
+      <c r="Q8" s="22"/>
       <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1">
@@ -3989,7 +4009,7 @@
       <c r="M9" s="15">
         <v>0</v>
       </c>
-      <c r="Q9" s="27"/>
+      <c r="Q9" s="22"/>
       <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:18">
@@ -4035,7 +4055,7 @@
       <c r="O10" t="s">
         <v>267</v>
       </c>
-      <c r="Q10" s="27"/>
+      <c r="Q10" s="22"/>
       <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1">
@@ -4078,7 +4098,7 @@
       <c r="M11" s="15">
         <v>0</v>
       </c>
-      <c r="Q11" s="27"/>
+      <c r="Q11" s="22"/>
       <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1">
@@ -4121,7 +4141,7 @@
       <c r="M12" s="15">
         <v>0</v>
       </c>
-      <c r="Q12" s="27"/>
+      <c r="Q12" s="22"/>
       <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1">
@@ -4161,7 +4181,7 @@
       <c r="M13" s="15">
         <v>0</v>
       </c>
-      <c r="Q13" s="27"/>
+      <c r="Q13" s="22"/>
       <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1">
@@ -4204,7 +4224,7 @@
       <c r="M14" s="15">
         <v>0</v>
       </c>
-      <c r="Q14" s="27"/>
+      <c r="Q14" s="22"/>
       <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1">
@@ -4247,7 +4267,7 @@
       <c r="M15" s="15">
         <v>0</v>
       </c>
-      <c r="Q15" s="27"/>
+      <c r="Q15" s="22"/>
       <c r="R15" s="2"/>
     </row>
     <row r="16" spans="1:18">
@@ -4290,7 +4310,7 @@
       <c r="O16" t="s">
         <v>266</v>
       </c>
-      <c r="Q16" s="27"/>
+      <c r="Q16" s="22"/>
       <c r="R16" s="2"/>
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1">
@@ -4333,7 +4353,7 @@
       <c r="M17" s="15">
         <v>0</v>
       </c>
-      <c r="Q17" s="27"/>
+      <c r="Q17" s="22"/>
       <c r="R17" s="2"/>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1">
@@ -4376,7 +4396,7 @@
       <c r="M18" s="15">
         <v>0</v>
       </c>
-      <c r="Q18" s="27"/>
+      <c r="Q18" s="22"/>
       <c r="R18" s="2"/>
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1">
@@ -4419,7 +4439,7 @@
       <c r="M19" s="15">
         <v>0</v>
       </c>
-      <c r="Q19" s="27"/>
+      <c r="Q19" s="22"/>
       <c r="R19" s="2"/>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1">
@@ -4462,7 +4482,7 @@
       <c r="M20" s="15">
         <v>0</v>
       </c>
-      <c r="Q20" s="27"/>
+      <c r="Q20" s="22"/>
       <c r="R20" s="2"/>
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1">
@@ -4505,7 +4525,7 @@
       <c r="M21" s="15">
         <v>0</v>
       </c>
-      <c r="Q21" s="27"/>
+      <c r="Q21" s="22"/>
       <c r="R21" s="2"/>
     </row>
     <row r="22" spans="1:18">
@@ -4548,7 +4568,7 @@
       <c r="O22" t="s">
         <v>266</v>
       </c>
-      <c r="Q22" s="27"/>
+      <c r="Q22" s="22"/>
       <c r="R22" s="2"/>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1">
@@ -4588,7 +4608,7 @@
       <c r="M23" s="15">
         <v>0</v>
       </c>
-      <c r="Q23" s="27"/>
+      <c r="Q23" s="22"/>
       <c r="R23" s="2"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1">
@@ -4628,7 +4648,7 @@
       <c r="M24" s="15">
         <v>0</v>
       </c>
-      <c r="Q24" s="27"/>
+      <c r="Q24" s="22"/>
       <c r="R24" s="2"/>
     </row>
     <row r="25" spans="1:18">
@@ -4674,7 +4694,7 @@
       <c r="O25" t="s">
         <v>266</v>
       </c>
-      <c r="Q25" s="27"/>
+      <c r="Q25" s="22"/>
       <c r="R25" s="2"/>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1">
@@ -4714,7 +4734,7 @@
       <c r="M26" s="15">
         <v>0</v>
       </c>
-      <c r="Q26" s="27"/>
+      <c r="Q26" s="22"/>
       <c r="R26" s="2"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1">
@@ -4754,7 +4774,7 @@
       <c r="M27" s="15">
         <v>0</v>
       </c>
-      <c r="Q27" s="27"/>
+      <c r="Q27" s="22"/>
       <c r="R27" s="2"/>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1">
@@ -4794,7 +4814,7 @@
       <c r="M28" s="15">
         <v>0</v>
       </c>
-      <c r="Q28" s="27"/>
+      <c r="Q28" s="22"/>
       <c r="R28" s="2"/>
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1">
@@ -4834,7 +4854,7 @@
       <c r="M29" s="15">
         <v>0</v>
       </c>
-      <c r="Q29" s="27"/>
+      <c r="Q29" s="22"/>
       <c r="R29" s="2"/>
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1">
@@ -4871,7 +4891,7 @@
       <c r="M30" s="15">
         <v>0</v>
       </c>
-      <c r="Q30" s="27"/>
+      <c r="Q30" s="22"/>
       <c r="R30" s="2"/>
     </row>
     <row r="31" spans="1:18">
@@ -4917,7 +4937,7 @@
       <c r="O31" t="s">
         <v>266</v>
       </c>
-      <c r="Q31" s="27"/>
+      <c r="Q31" s="22"/>
       <c r="R31" s="2"/>
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1">
@@ -4957,7 +4977,7 @@
       <c r="M32" s="15">
         <v>0</v>
       </c>
-      <c r="Q32" s="27"/>
+      <c r="Q32" s="22"/>
       <c r="R32" s="2"/>
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1">
@@ -4997,7 +5017,7 @@
       <c r="M33" s="15">
         <v>0</v>
       </c>
-      <c r="Q33" s="27"/>
+      <c r="Q33" s="22"/>
       <c r="R33" s="2"/>
     </row>
     <row r="34" spans="1:18" ht="15" customHeight="1">
@@ -5034,7 +5054,7 @@
       <c r="M34" s="15">
         <v>0</v>
       </c>
-      <c r="Q34" s="27"/>
+      <c r="Q34" s="22"/>
       <c r="R34" s="2"/>
     </row>
     <row r="35" spans="1:18" ht="15" customHeight="1">
@@ -5070,7 +5090,7 @@
       <c r="M35" s="15">
         <v>0</v>
       </c>
-      <c r="Q35" s="27"/>
+      <c r="Q35" s="22"/>
       <c r="R35" s="2"/>
     </row>
     <row r="36" spans="1:18" ht="15" customHeight="1">
@@ -5110,7 +5130,7 @@
       <c r="M36" s="15">
         <v>0</v>
       </c>
-      <c r="Q36" s="27"/>
+      <c r="Q36" s="22"/>
       <c r="R36" s="2"/>
     </row>
     <row r="37" spans="1:18">
@@ -5156,7 +5176,7 @@
       <c r="O37" t="s">
         <v>266</v>
       </c>
-      <c r="Q37" s="27"/>
+      <c r="Q37" s="22"/>
       <c r="R37" s="2"/>
     </row>
     <row r="38" spans="1:18" ht="15" customHeight="1">
@@ -5196,7 +5216,7 @@
       <c r="M38" s="15">
         <v>0</v>
       </c>
-      <c r="Q38" s="27"/>
+      <c r="Q38" s="22"/>
       <c r="R38" s="2"/>
     </row>
     <row r="39" spans="1:18" ht="15" customHeight="1">
@@ -5236,7 +5256,7 @@
       <c r="M39" s="15">
         <v>0</v>
       </c>
-      <c r="Q39" s="27"/>
+      <c r="Q39" s="22"/>
       <c r="R39" s="2"/>
     </row>
     <row r="40" spans="1:18" ht="15" customHeight="1">
@@ -5276,7 +5296,7 @@
       <c r="M40" s="15">
         <v>0</v>
       </c>
-      <c r="Q40" s="27"/>
+      <c r="Q40" s="22"/>
       <c r="R40" s="2"/>
     </row>
     <row r="41" spans="1:18" ht="15" customHeight="1">
@@ -5316,7 +5336,7 @@
       <c r="M41" s="15">
         <v>0</v>
       </c>
-      <c r="Q41" s="27"/>
+      <c r="Q41" s="22"/>
       <c r="R41" s="2"/>
     </row>
     <row r="42" spans="1:18">
@@ -5362,7 +5382,7 @@
       <c r="O42" t="s">
         <v>267</v>
       </c>
-      <c r="Q42" s="27"/>
+      <c r="Q42" s="22"/>
       <c r="R42" s="2"/>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1">
@@ -5402,7 +5422,7 @@
       <c r="M43" s="15">
         <v>0</v>
       </c>
-      <c r="Q43" s="27"/>
+      <c r="Q43" s="22"/>
       <c r="R43" s="2"/>
     </row>
     <row r="44" spans="1:18" ht="15" customHeight="1">
@@ -5442,7 +5462,7 @@
       <c r="M44" s="15">
         <v>0</v>
       </c>
-      <c r="Q44" s="27"/>
+      <c r="Q44" s="22"/>
       <c r="R44" s="2"/>
     </row>
     <row r="45" spans="1:18" ht="15" customHeight="1">
@@ -5482,7 +5502,7 @@
       <c r="M45" s="15">
         <v>0</v>
       </c>
-      <c r="Q45" s="27"/>
+      <c r="Q45" s="22"/>
       <c r="R45" s="2"/>
     </row>
     <row r="46" spans="1:18" ht="15" customHeight="1">
@@ -5522,7 +5542,7 @@
       <c r="M46" s="15">
         <v>0</v>
       </c>
-      <c r="Q46" s="27"/>
+      <c r="Q46" s="22"/>
       <c r="R46" s="2"/>
     </row>
     <row r="47" spans="1:18" ht="15" customHeight="1">
@@ -5562,7 +5582,7 @@
       <c r="M47" s="15">
         <v>0</v>
       </c>
-      <c r="Q47" s="27"/>
+      <c r="Q47" s="22"/>
       <c r="R47" s="2"/>
     </row>
     <row r="48" spans="1:18" ht="15" customHeight="1">
@@ -5599,7 +5619,7 @@
       <c r="M48" s="15">
         <v>0</v>
       </c>
-      <c r="Q48" s="27"/>
+      <c r="Q48" s="22"/>
       <c r="R48" s="2"/>
     </row>
     <row r="49" spans="1:18" ht="15" customHeight="1">
@@ -5639,7 +5659,7 @@
       <c r="M49" s="15">
         <v>0</v>
       </c>
-      <c r="Q49" s="27"/>
+      <c r="Q49" s="22"/>
       <c r="R49" s="2"/>
     </row>
     <row r="50" spans="1:18" ht="15" customHeight="1">
@@ -5679,7 +5699,7 @@
       <c r="M50" s="15">
         <v>0</v>
       </c>
-      <c r="Q50" s="27"/>
+      <c r="Q50" s="22"/>
       <c r="R50" s="2"/>
     </row>
     <row r="51" spans="1:18" ht="16.8" customHeight="1">
@@ -5728,7 +5748,7 @@
       <c r="O51" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="Q51" s="27"/>
+      <c r="Q51" s="22"/>
       <c r="R51" s="2"/>
     </row>
     <row r="52" spans="1:18" ht="15" customHeight="1">
@@ -5768,7 +5788,7 @@
       <c r="M52" s="15">
         <v>0</v>
       </c>
-      <c r="Q52" s="27"/>
+      <c r="Q52" s="22"/>
       <c r="R52" s="2"/>
     </row>
     <row r="53" spans="1:18">
@@ -5814,7 +5834,7 @@
       <c r="O53" t="s">
         <v>267</v>
       </c>
-      <c r="Q53" s="27"/>
+      <c r="Q53" s="22"/>
       <c r="R53" s="2"/>
     </row>
     <row r="54" spans="1:18" ht="15" customHeight="1">
@@ -5857,7 +5877,7 @@
       <c r="O54" t="s">
         <v>267</v>
       </c>
-      <c r="Q54" s="27"/>
+      <c r="Q54" s="22"/>
       <c r="R54" s="2"/>
     </row>
     <row r="55" spans="1:18">
@@ -5903,7 +5923,7 @@
       <c r="O55" t="s">
         <v>267</v>
       </c>
-      <c r="Q55" s="27"/>
+      <c r="Q55" s="22"/>
       <c r="R55" s="2"/>
     </row>
     <row r="56" spans="1:18" ht="15" customHeight="1">
@@ -5946,7 +5966,7 @@
       <c r="O56" t="s">
         <v>267</v>
       </c>
-      <c r="Q56" s="27"/>
+      <c r="Q56" s="22"/>
       <c r="R56" s="2"/>
     </row>
     <row r="57" spans="1:18" ht="15" customHeight="1">
@@ -5989,7 +6009,7 @@
       <c r="O57" t="s">
         <v>267</v>
       </c>
-      <c r="Q57" s="27"/>
+      <c r="Q57" s="22"/>
       <c r="R57" s="2"/>
     </row>
     <row r="58" spans="1:18" ht="15" customHeight="1">
@@ -6029,7 +6049,7 @@
       <c r="O58" t="s">
         <v>267</v>
       </c>
-      <c r="Q58" s="27"/>
+      <c r="Q58" s="22"/>
       <c r="R58" s="2"/>
     </row>
     <row r="59" spans="1:18" ht="15" customHeight="1">
@@ -6072,7 +6092,7 @@
       <c r="O59" t="s">
         <v>267</v>
       </c>
-      <c r="Q59" s="27"/>
+      <c r="Q59" s="22"/>
       <c r="R59" s="2"/>
     </row>
     <row r="60" spans="1:18">
@@ -6118,7 +6138,7 @@
       <c r="O60" t="s">
         <v>267</v>
       </c>
-      <c r="Q60" s="27"/>
+      <c r="Q60" s="22"/>
       <c r="R60" s="2"/>
     </row>
     <row r="61" spans="1:18" ht="15" customHeight="1">
@@ -6161,7 +6181,7 @@
       <c r="O61" t="s">
         <v>267</v>
       </c>
-      <c r="Q61" s="27"/>
+      <c r="Q61" s="22"/>
       <c r="R61" s="2"/>
     </row>
     <row r="62" spans="1:18" ht="15" customHeight="1">
@@ -6204,7 +6224,7 @@
       <c r="O62" t="s">
         <v>267</v>
       </c>
-      <c r="Q62" s="27"/>
+      <c r="Q62" s="22"/>
       <c r="R62" s="2"/>
     </row>
     <row r="63" spans="1:18">
@@ -6249,7 +6269,7 @@
       <c r="O63" t="s">
         <v>267</v>
       </c>
-      <c r="Q63" s="27"/>
+      <c r="Q63" s="22"/>
       <c r="R63" s="2"/>
     </row>
     <row r="64" spans="1:18" ht="15" customHeight="1">
@@ -6292,7 +6312,7 @@
       <c r="O64" t="s">
         <v>267</v>
       </c>
-      <c r="Q64" s="27"/>
+      <c r="Q64" s="22"/>
       <c r="R64" s="2"/>
     </row>
     <row r="65" spans="1:18" ht="15" customHeight="1">
@@ -6335,7 +6355,7 @@
       <c r="O65" t="s">
         <v>267</v>
       </c>
-      <c r="Q65" s="27"/>
+      <c r="Q65" s="22"/>
       <c r="R65" s="2"/>
     </row>
     <row r="66" spans="1:18" ht="15" customHeight="1">
@@ -6375,7 +6395,7 @@
       <c r="O66" t="s">
         <v>267</v>
       </c>
-      <c r="Q66" s="27"/>
+      <c r="Q66" s="22"/>
       <c r="R66" s="2"/>
     </row>
     <row r="67" spans="1:18">
@@ -6421,7 +6441,7 @@
       <c r="O67" t="s">
         <v>267</v>
       </c>
-      <c r="Q67" s="27"/>
+      <c r="Q67" s="22"/>
       <c r="R67" s="2"/>
     </row>
     <row r="68" spans="1:18" ht="15" customHeight="1">
@@ -6464,7 +6484,7 @@
       <c r="O68" t="s">
         <v>267</v>
       </c>
-      <c r="Q68" s="27"/>
+      <c r="Q68" s="22"/>
       <c r="R68" s="2"/>
     </row>
     <row r="69" spans="1:18" ht="15" customHeight="1">
@@ -6504,7 +6524,7 @@
       <c r="O69" t="s">
         <v>267</v>
       </c>
-      <c r="Q69" s="27"/>
+      <c r="Q69" s="22"/>
       <c r="R69" s="2"/>
     </row>
     <row r="70" spans="1:18" ht="15" customHeight="1">
@@ -6547,7 +6567,7 @@
       <c r="O70" t="s">
         <v>267</v>
       </c>
-      <c r="Q70" s="27"/>
+      <c r="Q70" s="22"/>
       <c r="R70" s="2"/>
     </row>
     <row r="71" spans="1:18" ht="15" customHeight="1">
@@ -6587,7 +6607,7 @@
       <c r="O71" t="s">
         <v>267</v>
       </c>
-      <c r="Q71" s="27"/>
+      <c r="Q71" s="22"/>
       <c r="R71" s="2"/>
     </row>
     <row r="72" spans="1:18">
@@ -6633,7 +6653,7 @@
       <c r="O72" t="s">
         <v>267</v>
       </c>
-      <c r="Q72" s="27"/>
+      <c r="Q72" s="22"/>
       <c r="R72" s="2"/>
     </row>
     <row r="73" spans="1:18" ht="15" customHeight="1">
@@ -6673,7 +6693,7 @@
       <c r="M73" s="15">
         <v>0</v>
       </c>
-      <c r="Q73" s="27"/>
+      <c r="Q73" s="22"/>
       <c r="R73" s="2"/>
     </row>
     <row r="74" spans="1:18" ht="15" customHeight="1">
@@ -6710,7 +6730,7 @@
       <c r="M74" s="15">
         <v>0</v>
       </c>
-      <c r="Q74" s="27"/>
+      <c r="Q74" s="22"/>
       <c r="R74" s="2"/>
     </row>
     <row r="75" spans="1:18" ht="15" customHeight="1">
@@ -6750,7 +6770,7 @@
       <c r="M75" s="15">
         <v>0</v>
       </c>
-      <c r="Q75" s="27"/>
+      <c r="Q75" s="22"/>
       <c r="R75" s="2"/>
     </row>
     <row r="76" spans="1:18" ht="15" customHeight="1">
@@ -6787,7 +6807,7 @@
       <c r="M76" s="15">
         <v>0</v>
       </c>
-      <c r="Q76" s="27"/>
+      <c r="Q76" s="22"/>
       <c r="R76" s="2"/>
     </row>
     <row r="77" spans="1:18" ht="15" customHeight="1">
@@ -6824,7 +6844,7 @@
       <c r="M77" s="15">
         <v>0</v>
       </c>
-      <c r="Q77" s="27"/>
+      <c r="Q77" s="22"/>
       <c r="R77" s="2"/>
     </row>
     <row r="78" spans="1:18" ht="15" customHeight="1">
@@ -6861,7 +6881,7 @@
       <c r="M78" s="15">
         <v>0</v>
       </c>
-      <c r="Q78" s="27"/>
+      <c r="Q78" s="22"/>
       <c r="R78" s="2"/>
     </row>
     <row r="79" spans="1:18" ht="15" customHeight="1">
@@ -6901,7 +6921,7 @@
       <c r="M79" s="15">
         <v>0</v>
       </c>
-      <c r="Q79" s="27"/>
+      <c r="Q79" s="22"/>
       <c r="R79" s="2"/>
     </row>
     <row r="80" spans="1:18">
@@ -6947,7 +6967,7 @@
       <c r="O80" t="s">
         <v>266</v>
       </c>
-      <c r="Q80" s="27"/>
+      <c r="Q80" s="22"/>
       <c r="R80" s="2"/>
     </row>
     <row r="81" spans="1:18" ht="15" customHeight="1">
@@ -6987,7 +7007,7 @@
       <c r="M81" s="15">
         <v>0</v>
       </c>
-      <c r="Q81" s="27"/>
+      <c r="Q81" s="22"/>
       <c r="R81" s="2"/>
     </row>
     <row r="82" spans="1:18" ht="15" customHeight="1">
@@ -7027,7 +7047,7 @@
       <c r="M82" s="15">
         <v>0</v>
       </c>
-      <c r="Q82" s="27"/>
+      <c r="Q82" s="22"/>
       <c r="R82" s="2"/>
     </row>
     <row r="83" spans="1:18" ht="15" customHeight="1">
@@ -7067,7 +7087,7 @@
       <c r="M83" s="15">
         <v>0</v>
       </c>
-      <c r="Q83" s="27"/>
+      <c r="Q83" s="22"/>
       <c r="R83" s="2"/>
     </row>
     <row r="84" spans="1:18" ht="15" customHeight="1">
@@ -7107,7 +7127,7 @@
       <c r="M84" s="15">
         <v>0</v>
       </c>
-      <c r="Q84" s="27"/>
+      <c r="Q84" s="22"/>
       <c r="R84" s="2"/>
     </row>
     <row r="85" spans="1:18">
@@ -7153,7 +7173,7 @@
       <c r="O85" t="s">
         <v>266</v>
       </c>
-      <c r="Q85" s="27"/>
+      <c r="Q85" s="22"/>
       <c r="R85" s="2"/>
     </row>
     <row r="86" spans="1:18" ht="15" customHeight="1">
@@ -7193,7 +7213,7 @@
       <c r="M86" s="15">
         <v>0</v>
       </c>
-      <c r="Q86" s="27"/>
+      <c r="Q86" s="22"/>
       <c r="R86" s="2"/>
     </row>
     <row r="87" spans="1:18" ht="15" customHeight="1">
@@ -7233,7 +7253,7 @@
       <c r="M87" s="15">
         <v>0</v>
       </c>
-      <c r="Q87" s="27"/>
+      <c r="Q87" s="22"/>
       <c r="R87" s="2"/>
     </row>
     <row r="88" spans="1:18" ht="15" customHeight="1">
@@ -7273,7 +7293,7 @@
       <c r="M88" s="15">
         <v>0</v>
       </c>
-      <c r="Q88" s="27"/>
+      <c r="Q88" s="22"/>
       <c r="R88" s="2"/>
     </row>
     <row r="89" spans="1:18" ht="15" customHeight="1">
@@ -7313,7 +7333,7 @@
       <c r="M89" s="15">
         <v>0</v>
       </c>
-      <c r="Q89" s="27"/>
+      <c r="Q89" s="22"/>
       <c r="R89" s="2"/>
     </row>
     <row r="90" spans="1:18" ht="15" customHeight="1">
@@ -7353,7 +7373,7 @@
       <c r="M90" s="15">
         <v>0</v>
       </c>
-      <c r="Q90" s="27"/>
+      <c r="Q90" s="22"/>
       <c r="R90" s="2"/>
     </row>
     <row r="91" spans="1:18">
@@ -7396,7 +7416,7 @@
       <c r="O91" t="s">
         <v>266</v>
       </c>
-      <c r="Q91" s="27"/>
+      <c r="Q91" s="22"/>
       <c r="R91" s="2"/>
     </row>
     <row r="92" spans="1:18" ht="15" customHeight="1">
@@ -7436,7 +7456,7 @@
       <c r="M92" s="15">
         <v>0</v>
       </c>
-      <c r="Q92" s="27"/>
+      <c r="Q92" s="22"/>
       <c r="R92" s="2"/>
     </row>
     <row r="93" spans="1:18" ht="15" customHeight="1">
@@ -7473,7 +7493,7 @@
       <c r="M93" s="15">
         <v>0</v>
       </c>
-      <c r="Q93" s="27"/>
+      <c r="Q93" s="22"/>
       <c r="R93" s="2"/>
     </row>
     <row r="94" spans="1:18" ht="15" customHeight="1">
@@ -7513,7 +7533,7 @@
       <c r="M94" s="15">
         <v>0</v>
       </c>
-      <c r="Q94" s="27"/>
+      <c r="Q94" s="22"/>
       <c r="R94" s="2"/>
     </row>
     <row r="95" spans="1:18" ht="15" customHeight="1">
@@ -7553,7 +7573,7 @@
       <c r="M95" s="15">
         <v>0</v>
       </c>
-      <c r="Q95" s="27"/>
+      <c r="Q95" s="22"/>
       <c r="R95" s="2"/>
     </row>
     <row r="96" spans="1:18" ht="15" customHeight="1">
@@ -7590,7 +7610,7 @@
       <c r="M96" s="15">
         <v>0</v>
       </c>
-      <c r="Q96" s="27"/>
+      <c r="Q96" s="22"/>
       <c r="R96" s="2"/>
     </row>
     <row r="97" spans="1:18" ht="15" customHeight="1">
@@ -7630,7 +7650,7 @@
       <c r="M97" s="15">
         <v>0</v>
       </c>
-      <c r="Q97" s="27"/>
+      <c r="Q97" s="22"/>
       <c r="R97" s="2"/>
     </row>
     <row r="98" spans="1:18" ht="15" customHeight="1">
@@ -7670,7 +7690,7 @@
       <c r="M98" s="15">
         <v>0</v>
       </c>
-      <c r="Q98" s="27"/>
+      <c r="Q98" s="22"/>
       <c r="R98" s="2"/>
     </row>
     <row r="99" spans="1:18" ht="15" customHeight="1">
@@ -7710,7 +7730,7 @@
       <c r="M99" s="15">
         <v>0</v>
       </c>
-      <c r="Q99" s="27"/>
+      <c r="Q99" s="22"/>
       <c r="R99" s="2"/>
     </row>
     <row r="100" spans="1:18" ht="15" customHeight="1">
@@ -7747,7 +7767,7 @@
       <c r="M100" s="15">
         <v>0</v>
       </c>
-      <c r="Q100" s="27"/>
+      <c r="Q100" s="22"/>
       <c r="R100" s="2"/>
     </row>
     <row r="101" spans="1:18" ht="15" customHeight="1">
@@ -7784,7 +7804,7 @@
       <c r="M101" s="15">
         <v>0</v>
       </c>
-      <c r="Q101" s="27"/>
+      <c r="Q101" s="22"/>
       <c r="R101" s="2"/>
     </row>
     <row r="102" spans="1:18" ht="15" customHeight="1">
@@ -7824,7 +7844,7 @@
       <c r="M102" s="15">
         <v>0</v>
       </c>
-      <c r="Q102" s="27"/>
+      <c r="Q102" s="22"/>
       <c r="R102" s="2"/>
     </row>
     <row r="103" spans="1:18" ht="15" customHeight="1">
@@ -7864,7 +7884,7 @@
       <c r="M103" s="15">
         <v>0</v>
       </c>
-      <c r="Q103" s="27"/>
+      <c r="Q103" s="22"/>
       <c r="R103" s="2"/>
     </row>
     <row r="104" spans="1:18" ht="15" customHeight="1">
@@ -7904,7 +7924,7 @@
       <c r="M104" s="15">
         <v>0</v>
       </c>
-      <c r="Q104" s="27"/>
+      <c r="Q104" s="22"/>
       <c r="R104" s="2"/>
     </row>
     <row r="105" spans="1:18" ht="15" customHeight="1">
@@ -7944,7 +7964,7 @@
       <c r="M105" s="15">
         <v>0</v>
       </c>
-      <c r="Q105" s="27"/>
+      <c r="Q105" s="22"/>
       <c r="R105" s="2"/>
     </row>
     <row r="106" spans="1:18" ht="15" customHeight="1">
@@ -7984,7 +8004,7 @@
       <c r="M106" s="15">
         <v>0</v>
       </c>
-      <c r="Q106" s="27"/>
+      <c r="Q106" s="22"/>
       <c r="R106" s="2"/>
     </row>
     <row r="107" spans="1:18" ht="15" customHeight="1">
@@ -8024,7 +8044,7 @@
       <c r="M107" s="15">
         <v>0</v>
       </c>
-      <c r="Q107" s="27"/>
+      <c r="Q107" s="22"/>
       <c r="R107" s="2"/>
     </row>
     <row r="108" spans="1:18" ht="15" customHeight="1">
@@ -8064,7 +8084,7 @@
       <c r="M108" s="15">
         <v>0</v>
       </c>
-      <c r="Q108" s="27"/>
+      <c r="Q108" s="22"/>
       <c r="R108" s="2"/>
     </row>
     <row r="109" spans="1:18" ht="15" customHeight="1">
@@ -8104,7 +8124,7 @@
       <c r="M109" s="15">
         <v>0</v>
       </c>
-      <c r="Q109" s="27"/>
+      <c r="Q109" s="22"/>
       <c r="R109" s="2"/>
     </row>
     <row r="110" spans="1:18" ht="15" customHeight="1">
@@ -8144,7 +8164,7 @@
       <c r="M110" s="15">
         <v>0</v>
       </c>
-      <c r="Q110" s="27"/>
+      <c r="Q110" s="22"/>
       <c r="R110" s="2"/>
     </row>
     <row r="111" spans="1:18" ht="15" customHeight="1">
@@ -8184,7 +8204,7 @@
       <c r="M111" s="15">
         <v>0</v>
       </c>
-      <c r="Q111" s="27"/>
+      <c r="Q111" s="22"/>
       <c r="R111" s="2"/>
     </row>
     <row r="112" spans="1:18" ht="15" customHeight="1">
@@ -8224,7 +8244,7 @@
       <c r="M112" s="15">
         <v>0</v>
       </c>
-      <c r="Q112" s="27"/>
+      <c r="Q112" s="22"/>
       <c r="R112" s="2"/>
     </row>
     <row r="113" spans="1:18" ht="15" customHeight="1">
@@ -8261,7 +8281,7 @@
       <c r="M113" s="15">
         <v>0</v>
       </c>
-      <c r="Q113" s="27"/>
+      <c r="Q113" s="22"/>
       <c r="R113" s="2"/>
     </row>
     <row r="114" spans="1:18" ht="15" customHeight="1">
@@ -8298,7 +8318,7 @@
       <c r="M114" s="15">
         <v>0</v>
       </c>
-      <c r="Q114" s="27"/>
+      <c r="Q114" s="22"/>
       <c r="R114" s="2"/>
     </row>
     <row r="115" spans="1:18" ht="15" customHeight="1">
@@ -8338,7 +8358,7 @@
       <c r="M115" s="15">
         <v>0</v>
       </c>
-      <c r="Q115" s="27"/>
+      <c r="Q115" s="22"/>
       <c r="R115" s="2"/>
     </row>
     <row r="116" spans="1:18" s="8" customFormat="1">
@@ -8382,7 +8402,7 @@
       <c r="O116" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="Q116" s="27"/>
+      <c r="Q116" s="22"/>
       <c r="R116" s="2"/>
     </row>
     <row r="117" spans="1:18" ht="15" customHeight="1">
@@ -8419,7 +8439,7 @@
       <c r="M117" s="15">
         <v>0</v>
       </c>
-      <c r="Q117" s="27"/>
+      <c r="Q117" s="22"/>
       <c r="R117" s="2"/>
     </row>
     <row r="118" spans="1:18" ht="15" customHeight="1">
@@ -8459,7 +8479,7 @@
       <c r="M118" s="15">
         <v>0</v>
       </c>
-      <c r="Q118" s="27"/>
+      <c r="Q118" s="22"/>
       <c r="R118" s="2"/>
     </row>
     <row r="119" spans="1:18" ht="15" customHeight="1">
@@ -8496,7 +8516,7 @@
       <c r="M119" s="15">
         <v>0</v>
       </c>
-      <c r="Q119" s="27"/>
+      <c r="Q119" s="22"/>
       <c r="R119" s="2"/>
     </row>
     <row r="120" spans="1:18" ht="15" customHeight="1">
@@ -8533,7 +8553,7 @@
       <c r="M120" s="15">
         <v>0</v>
       </c>
-      <c r="Q120" s="27"/>
+      <c r="Q120" s="22"/>
       <c r="R120" s="2"/>
     </row>
     <row r="121" spans="1:18" ht="15" customHeight="1">
@@ -8570,7 +8590,7 @@
       <c r="M121" s="15">
         <v>0</v>
       </c>
-      <c r="Q121" s="27"/>
+      <c r="Q121" s="22"/>
       <c r="R121" s="2"/>
     </row>
     <row r="122" spans="1:18" ht="15" customHeight="1">
@@ -8610,7 +8630,7 @@
       <c r="M122" s="15">
         <v>0</v>
       </c>
-      <c r="Q122" s="27"/>
+      <c r="Q122" s="22"/>
       <c r="R122" s="2"/>
     </row>
     <row r="123" spans="1:18" ht="15" customHeight="1">
@@ -8650,7 +8670,7 @@
       <c r="M123" s="15">
         <v>0</v>
       </c>
-      <c r="Q123" s="27"/>
+      <c r="Q123" s="22"/>
       <c r="R123" s="2"/>
     </row>
     <row r="124" spans="1:18" ht="15" customHeight="1">
@@ -8687,7 +8707,7 @@
       <c r="M124" s="15">
         <v>0</v>
       </c>
-      <c r="Q124" s="27"/>
+      <c r="Q124" s="22"/>
       <c r="R124" s="2"/>
     </row>
     <row r="125" spans="1:18" ht="15" customHeight="1">
@@ -8727,7 +8747,7 @@
       <c r="M125" s="15">
         <v>0</v>
       </c>
-      <c r="Q125" s="27"/>
+      <c r="Q125" s="22"/>
       <c r="R125" s="2"/>
     </row>
     <row r="126" spans="1:18" ht="15" customHeight="1">
@@ -8767,7 +8787,7 @@
       <c r="M126" s="15">
         <v>0</v>
       </c>
-      <c r="Q126" s="27"/>
+      <c r="Q126" s="22"/>
       <c r="R126" s="2"/>
     </row>
     <row r="127" spans="1:18" ht="15" customHeight="1">
@@ -8807,7 +8827,7 @@
       <c r="M127" s="15">
         <v>0</v>
       </c>
-      <c r="Q127" s="27"/>
+      <c r="Q127" s="22"/>
       <c r="R127" s="2"/>
     </row>
     <row r="128" spans="1:18" ht="15" customHeight="1">
@@ -8844,7 +8864,7 @@
       <c r="M128" s="15">
         <v>0</v>
       </c>
-      <c r="Q128" s="27"/>
+      <c r="Q128" s="22"/>
       <c r="R128" s="2"/>
     </row>
     <row r="129" spans="1:18">
@@ -8887,7 +8907,7 @@
       <c r="O129" t="s">
         <v>266</v>
       </c>
-      <c r="Q129" s="27"/>
+      <c r="Q129" s="22"/>
       <c r="R129" s="2"/>
     </row>
     <row r="130" spans="1:18">
@@ -8930,7 +8950,7 @@
       <c r="O130" t="s">
         <v>266</v>
       </c>
-      <c r="Q130" s="27"/>
+      <c r="Q130" s="22"/>
       <c r="R130" s="2"/>
     </row>
     <row r="131" spans="1:18" ht="15" customHeight="1">
@@ -8967,7 +8987,7 @@
       <c r="M131" s="15">
         <v>0</v>
       </c>
-      <c r="Q131" s="27"/>
+      <c r="Q131" s="22"/>
       <c r="R131" s="2"/>
     </row>
     <row r="132" spans="1:18" ht="15" customHeight="1">
@@ -9004,7 +9024,7 @@
       <c r="M132" s="15">
         <v>0</v>
       </c>
-      <c r="Q132" s="27"/>
+      <c r="Q132" s="22"/>
       <c r="R132" s="2"/>
     </row>
     <row r="133" spans="1:18" ht="15" customHeight="1">
@@ -9044,7 +9064,7 @@
       <c r="M133" s="15">
         <v>0</v>
       </c>
-      <c r="Q133" s="27"/>
+      <c r="Q133" s="22"/>
       <c r="R133" s="2"/>
     </row>
     <row r="134" spans="1:18" ht="15" customHeight="1">
@@ -9081,7 +9101,7 @@
       <c r="M134" s="15">
         <v>0</v>
       </c>
-      <c r="Q134" s="27"/>
+      <c r="Q134" s="22"/>
       <c r="R134" s="2"/>
     </row>
     <row r="135" spans="1:18" ht="15" customHeight="1">
@@ -9121,7 +9141,7 @@
       <c r="M135" s="15">
         <v>0</v>
       </c>
-      <c r="Q135" s="27"/>
+      <c r="Q135" s="22"/>
       <c r="R135" s="2"/>
     </row>
     <row r="136" spans="1:18" ht="15" customHeight="1">
@@ -9158,7 +9178,7 @@
       <c r="M136" s="15">
         <v>0</v>
       </c>
-      <c r="Q136" s="27"/>
+      <c r="Q136" s="22"/>
       <c r="R136" s="2"/>
     </row>
     <row r="137" spans="1:18" ht="15" customHeight="1">
@@ -9195,7 +9215,7 @@
       <c r="M137" s="15">
         <v>0</v>
       </c>
-      <c r="Q137" s="27"/>
+      <c r="Q137" s="22"/>
       <c r="R137" s="2"/>
     </row>
     <row r="138" spans="1:18" ht="15" customHeight="1">
@@ -9232,7 +9252,7 @@
       <c r="M138" s="15">
         <v>0</v>
       </c>
-      <c r="Q138" s="27"/>
+      <c r="Q138" s="22"/>
       <c r="R138" s="2"/>
     </row>
     <row r="139" spans="1:18" ht="15" customHeight="1">
@@ -9269,7 +9289,7 @@
       <c r="M139" s="15">
         <v>0</v>
       </c>
-      <c r="Q139" s="27"/>
+      <c r="Q139" s="22"/>
       <c r="R139" s="2"/>
     </row>
     <row r="140" spans="1:18" ht="15" customHeight="1">
@@ -9309,7 +9329,7 @@
       <c r="M140" s="15">
         <v>0</v>
       </c>
-      <c r="Q140" s="27"/>
+      <c r="Q140" s="22"/>
       <c r="R140" s="2"/>
     </row>
     <row r="141" spans="1:18" ht="15" customHeight="1">
@@ -9349,7 +9369,7 @@
       <c r="M141" s="15">
         <v>0</v>
       </c>
-      <c r="Q141" s="27"/>
+      <c r="Q141" s="22"/>
       <c r="R141" s="2"/>
     </row>
     <row r="142" spans="1:18" ht="15" customHeight="1">
@@ -9386,7 +9406,7 @@
       <c r="M142" s="15">
         <v>0</v>
       </c>
-      <c r="Q142" s="27"/>
+      <c r="Q142" s="22"/>
       <c r="R142" s="2"/>
     </row>
     <row r="143" spans="1:18">
@@ -9429,7 +9449,7 @@
       <c r="O143" t="s">
         <v>266</v>
       </c>
-      <c r="Q143" s="27"/>
+      <c r="Q143" s="22"/>
       <c r="R143" s="2"/>
     </row>
     <row r="144" spans="1:18" ht="15" customHeight="1">
@@ -9466,7 +9486,7 @@
       <c r="M144" s="15">
         <v>0</v>
       </c>
-      <c r="Q144" s="27"/>
+      <c r="Q144" s="22"/>
       <c r="R144" s="2"/>
     </row>
     <row r="145" spans="1:18" ht="15" customHeight="1">
@@ -9503,7 +9523,7 @@
       <c r="M145" s="15">
         <v>0</v>
       </c>
-      <c r="Q145" s="27"/>
+      <c r="Q145" s="22"/>
       <c r="R145" s="2"/>
     </row>
     <row r="146" spans="1:18" ht="15" customHeight="1">
@@ -9543,7 +9563,7 @@
       <c r="M146" s="15">
         <v>0</v>
       </c>
-      <c r="Q146" s="27"/>
+      <c r="Q146" s="22"/>
       <c r="R146" s="2"/>
     </row>
     <row r="147" spans="1:18">
@@ -9586,7 +9606,7 @@
       <c r="O147" t="s">
         <v>266</v>
       </c>
-      <c r="Q147" s="27"/>
+      <c r="Q147" s="22"/>
       <c r="R147" s="2"/>
     </row>
     <row r="148" spans="1:18" ht="15" customHeight="1">
@@ -9623,7 +9643,7 @@
       <c r="M148" s="15">
         <v>0</v>
       </c>
-      <c r="Q148" s="27"/>
+      <c r="Q148" s="22"/>
       <c r="R148" s="2"/>
     </row>
     <row r="149" spans="1:18" ht="15" customHeight="1">
@@ -9660,7 +9680,7 @@
       <c r="M149" s="15">
         <v>0</v>
       </c>
-      <c r="Q149" s="27"/>
+      <c r="Q149" s="22"/>
       <c r="R149" s="2"/>
     </row>
     <row r="150" spans="1:18" ht="15" customHeight="1">
@@ -9697,7 +9717,7 @@
       <c r="M150" s="15">
         <v>0</v>
       </c>
-      <c r="Q150" s="27"/>
+      <c r="Q150" s="22"/>
       <c r="R150" s="2"/>
     </row>
     <row r="151" spans="1:18" ht="15" customHeight="1">
@@ -9734,7 +9754,7 @@
       <c r="M151" s="15">
         <v>0</v>
       </c>
-      <c r="Q151" s="27"/>
+      <c r="Q151" s="22"/>
       <c r="R151" s="2"/>
     </row>
     <row r="152" spans="1:18" ht="15" customHeight="1">
@@ -9771,7 +9791,7 @@
       <c r="M152" s="15">
         <v>0</v>
       </c>
-      <c r="Q152" s="27"/>
+      <c r="Q152" s="22"/>
       <c r="R152" s="2"/>
     </row>
   </sheetData>
@@ -9783,10 +9803,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:N51"/>
+  <dimension ref="B2:N53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9796,6 +9816,10 @@
     <col min="14" max="14" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:14">
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+    </row>
     <row r="3" spans="2:14" ht="28.8">
       <c r="B3" s="20"/>
       <c r="C3" s="20" t="s">
@@ -9810,9 +9834,10 @@
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="24" t="s">
         <v>271</v>
       </c>
+      <c r="L3" s="23"/>
       <c r="N3" s="21" t="s">
         <v>284</v>
       </c>
@@ -9826,39 +9851,40 @@
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="27" t="s">
         <v>266</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5">
+      <c r="B5" s="31">
         <v>1</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="32">
         <v>1.8146499999999999E-2</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="29">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="29">
         <v>0.2</v>
       </c>
       <c r="K5" s="26">
         <v>0.04</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="23" t="s">
         <v>280</v>
       </c>
       <c r="N5" s="1" t="s">
@@ -9866,43 +9892,43 @@
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6">
+      <c r="B6" s="31">
         <v>2</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="32">
         <v>1.98745E-2</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="29">
         <v>0.05</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="29">
         <v>0.13</v>
       </c>
       <c r="K6" s="26">
         <v>0.02</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="23" t="s">
         <v>283</v>
       </c>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="2:14" ht="28.8">
-      <c r="B7">
+      <c r="B7" s="31">
         <v>3</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="32">
         <v>2.1090000000000001E-2</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="29">
         <v>0.04</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="29">
         <v>0.1</v>
       </c>
       <c r="N7" s="1" t="s">
@@ -9910,52 +9936,52 @@
       </c>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8">
+      <c r="B8" s="31">
         <v>4</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="32">
         <v>2.2095500000000001E-2</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="29">
         <v>0.03</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="29">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9">
+      <c r="B9" s="31">
         <v>5</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="32">
         <v>2.3014999999999997E-2</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="29">
         <v>0.02</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="29">
         <v>0.03</v>
       </c>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10">
+      <c r="B10" s="31">
         <v>6</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="32">
         <v>2.3857999999999997E-2</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="28.8">
-      <c r="B11">
+      <c r="B11" s="31">
         <v>7</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="32">
         <v>2.4624999999999998E-2</v>
       </c>
       <c r="K11" s="21" t="s">
@@ -9964,10 +9990,10 @@
       <c r="L11" s="21"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12">
+      <c r="B12" s="31">
         <v>8</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="32">
         <v>2.5346E-2</v>
       </c>
       <c r="K12" s="9">
@@ -9975,10 +10001,10 @@
       </c>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13">
+      <c r="B13" s="31">
         <v>9</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="32">
         <v>2.6036E-2</v>
       </c>
       <c r="K13" s="20" t="s">
@@ -9986,307 +10012,323 @@
       </c>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14">
+      <c r="B14" s="31">
         <v>10</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="32">
         <v>2.6703999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="2:14">
-      <c r="B15">
+      <c r="B15" s="31">
         <v>11</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="32">
         <v>2.7355000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16">
+      <c r="B16" s="31">
         <v>12</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="32">
         <v>2.7993500000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17">
+      <c r="B17" s="31">
         <v>13</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="32">
         <v>2.86205E-2</v>
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18">
+      <c r="B18" s="31">
         <v>14</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="32">
         <v>2.9240499999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19">
+      <c r="B19" s="31">
         <v>15</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="32">
         <v>2.9854000000000002E-2</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20">
+      <c r="B20" s="31">
         <v>16</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="32">
         <v>3.0467500000000005E-2</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21">
+      <c r="B21" s="31">
         <v>17</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="32">
         <v>3.1081000000000008E-2</v>
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22">
+      <c r="B22" s="31">
         <v>18</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="32">
         <v>3.1694500000000014E-2</v>
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23">
+      <c r="B23" s="31">
         <v>19</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="32">
         <v>3.2308000000000017E-2</v>
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24">
+      <c r="B24" s="31">
         <v>20</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="32">
         <v>3.292150000000002E-2</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25">
+      <c r="B25" s="31">
         <v>21</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="32">
         <v>3.3535000000000023E-2</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26">
+      <c r="B26" s="31">
         <v>22</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="32">
         <v>3.4148500000000026E-2</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27">
+      <c r="B27" s="31">
         <v>23</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="32">
         <v>3.4762000000000029E-2</v>
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28">
+      <c r="B28" s="31">
         <v>24</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="32">
         <v>3.5375500000000032E-2</v>
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29">
+      <c r="B29" s="31">
         <v>25</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="32">
         <v>3.5989000000000035E-2</v>
       </c>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30">
+      <c r="B30" s="31">
         <v>26</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="32">
         <v>3.6602500000000038E-2</v>
       </c>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31">
+      <c r="B31" s="31">
         <v>27</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="32">
         <v>3.7216000000000041E-2</v>
       </c>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32">
+      <c r="B32" s="31">
         <v>28</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="32">
         <v>3.7829500000000044E-2</v>
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33">
+      <c r="B33" s="31">
         <v>29</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="32">
         <v>3.8443000000000047E-2</v>
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34">
+      <c r="B34" s="31">
         <v>30</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C34" s="32">
         <v>3.905650000000005E-2</v>
       </c>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35">
+      <c r="B35" s="31">
         <v>31</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="32">
         <v>3.9670000000000052E-2</v>
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36">
+      <c r="B36" s="31">
         <v>32</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" s="32">
         <v>4.0283500000000055E-2</v>
       </c>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37">
+      <c r="B37" s="31">
         <v>33</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="32">
         <v>4.0897000000000058E-2</v>
       </c>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38">
+      <c r="B38" s="31">
         <v>34</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C38" s="32">
         <v>4.1510500000000061E-2</v>
       </c>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39">
+      <c r="B39" s="31">
         <v>35</v>
       </c>
-      <c r="C39" s="23">
+      <c r="C39" s="32">
         <v>4.2124000000000064E-2</v>
       </c>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40">
+      <c r="B40" s="31">
         <v>36</v>
       </c>
-      <c r="C40" s="23">
+      <c r="C40" s="32">
         <v>4.2737500000000067E-2</v>
       </c>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41">
+      <c r="B41" s="31">
         <v>37</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="32">
         <v>4.335100000000007E-2</v>
       </c>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42">
+      <c r="B42" s="31">
         <v>38</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="32">
         <v>4.3964500000000073E-2</v>
       </c>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43">
+      <c r="B43" s="31">
         <v>39</v>
       </c>
-      <c r="C43" s="23">
+      <c r="C43" s="32">
         <v>4.4578000000000076E-2</v>
       </c>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44">
+      <c r="B44" s="31">
         <v>40</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C44" s="32">
         <v>4.5191500000000079E-2</v>
       </c>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45">
+      <c r="B45" s="31">
         <v>41</v>
       </c>
-      <c r="C45" s="23">
+      <c r="C45" s="32">
         <v>4.5805000000000082E-2</v>
       </c>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46">
+      <c r="B46" s="31">
         <v>42</v>
       </c>
-      <c r="C46" s="23">
+      <c r="C46" s="32">
         <v>4.6418500000000085E-2</v>
       </c>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47">
+      <c r="B47" s="31">
         <v>43</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="32">
         <v>4.7032000000000088E-2</v>
       </c>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48">
+      <c r="B48" s="31">
         <v>44</v>
       </c>
-      <c r="C48" s="23">
+      <c r="C48" s="32">
         <v>4.7645500000000091E-2</v>
       </c>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49">
+      <c r="B49" s="31">
         <v>45</v>
       </c>
-      <c r="C49" s="23">
+      <c r="C49" s="32">
         <v>4.8259000000000093E-2</v>
       </c>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50">
+      <c r="B50" s="31">
         <v>46</v>
       </c>
-      <c r="C50" s="23">
+      <c r="C50" s="32">
         <v>4.8872500000000096E-2</v>
       </c>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51">
+      <c r="B51" s="23">
         <v>47</v>
       </c>
-      <c r="C51" s="23">
+      <c r="C51" s="30">
         <v>4.9486000000000099E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" s="23">
+        <v>48</v>
+      </c>
+      <c r="C52" s="30">
+        <v>4.9500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" s="23">
+        <v>49</v>
+      </c>
+      <c r="C53" s="30">
+        <v>4.9500000000000002E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data8.xlsx
+++ b/data8.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="19032" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="19032" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$2:$R$152</definedName>
   </definedNames>
-  <calcPr calcId="124519" calcMode="autoNoTable"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1579,7 +1579,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="88">
+  <fills count="89">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2056,6 +2056,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2914,7 +2920,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2970,6 +2976,42 @@
     <xf numFmtId="10" fontId="0" fillId="86" borderId="0" xfId="378" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="87" borderId="0" xfId="378" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="86" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="86" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="86" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="76" fillId="86" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="86" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="86" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="86" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="76" fillId="86" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="88" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="88" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="88" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="76" fillId="88" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="88" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="88" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="88" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="76" fillId="88" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="379">
     <cellStyle name="$" xfId="2"/>
@@ -3649,15 +3691,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:R152"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" customWidth="1"/>
@@ -3821,7 +3863,7 @@
         <v>25591.190625000003</v>
       </c>
       <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="I5" s="7"/>
       <c r="J5" s="15">
         <v>557914.5</v>
       </c>
@@ -3864,7 +3906,7 @@
         <v>12258.675000000001</v>
       </c>
       <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="I6" s="7"/>
       <c r="J6" s="15">
         <v>142014.6</v>
       </c>
@@ -3948,7 +3990,7 @@
         <v>17386.565625000003</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="I8" s="7"/>
       <c r="J8" s="15">
         <v>304317</v>
       </c>
@@ -4035,7 +4077,7 @@
         <v>11887.415718750002</v>
       </c>
       <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="15">
         <v>263741.39999999997</v>
       </c>
@@ -4167,7 +4209,7 @@
         <v>25591.190625000003</v>
       </c>
       <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="15">
         <v>385468.2</v>
       </c>
@@ -4293,7 +4335,7 @@
         <v>27027.000000000004</v>
       </c>
       <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="15">
         <v>223165.8</v>
       </c>
@@ -4551,7 +4593,7 @@
         <v>10720.307812500001</v>
       </c>
       <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="I22" s="7"/>
       <c r="J22" s="15">
         <v>121726.79999999999</v>
       </c>
@@ -4880,7 +4922,7 @@
         <v>25591.190625000003</v>
       </c>
       <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
+      <c r="I30" s="7"/>
       <c r="J30" s="15">
         <v>253597.5</v>
       </c>
@@ -5043,7 +5085,7 @@
         <v>19437.721875000003</v>
       </c>
       <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
+      <c r="I34" s="7"/>
       <c r="J34" s="15">
         <v>182590.19999999998</v>
       </c>
@@ -5080,7 +5122,7 @@
         <v>8848.6277343750007</v>
       </c>
       <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
+      <c r="I35" s="7"/>
       <c r="J35" s="15">
         <v>81151.199999999997</v>
       </c>
@@ -5585,42 +5627,42 @@
       <c r="Q47" s="22"/>
       <c r="R47" s="2"/>
     </row>
-    <row r="48" spans="1:18" ht="15" customHeight="1">
-      <c r="A48" s="19">
+    <row r="48" spans="1:18" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A48" s="33">
         <v>46</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E48" s="36">
         <v>21268</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="37">
         <v>35400</v>
       </c>
-      <c r="G48" s="15">
+      <c r="G48" s="38">
         <v>16360.987500000001</v>
       </c>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="15">
+      <c r="H48" s="37"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="38">
         <v>355036.5</v>
       </c>
-      <c r="K48" s="15">
+      <c r="K48" s="38">
         <f>G48</f>
         <v>16360.987500000001</v>
       </c>
-      <c r="M48" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="22"/>
-      <c r="R48" s="2"/>
+      <c r="M48" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="39"/>
+      <c r="R48" s="40"/>
     </row>
     <row r="49" spans="1:18" ht="15" customHeight="1">
       <c r="A49" s="19">
@@ -6035,7 +6077,7 @@
         <v>25898.864062500001</v>
       </c>
       <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
+      <c r="I58" s="7"/>
       <c r="J58" s="15">
         <v>253597.5</v>
       </c>
@@ -6250,7 +6292,7 @@
         <v>14807.236640625002</v>
       </c>
       <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
+      <c r="I63" s="7"/>
       <c r="J63" s="15">
         <v>142014.6</v>
       </c>
@@ -6358,45 +6400,45 @@
       <c r="Q65" s="22"/>
       <c r="R65" s="2"/>
     </row>
-    <row r="66" spans="1:18" ht="15" customHeight="1">
-      <c r="A66" s="19">
+    <row r="66" spans="1:18" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A66" s="33">
         <v>64</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D66" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E66" s="18">
+      <c r="E66" s="36">
         <v>19508</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F66" s="37">
         <v>37226</v>
       </c>
-      <c r="G66" s="15">
+      <c r="G66" s="38">
         <v>22104.225000000002</v>
       </c>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="15">
+      <c r="H66" s="37"/>
+      <c r="I66" s="50"/>
+      <c r="J66" s="38">
         <v>253597.5</v>
       </c>
-      <c r="K66" s="15">
+      <c r="K66" s="38">
         <f t="shared" ref="K66:K67" si="0">G66</f>
         <v>22104.225000000002</v>
       </c>
-      <c r="M66" s="15">
-        <v>0</v>
-      </c>
-      <c r="O66" t="s">
+      <c r="M66" s="38">
+        <v>0</v>
+      </c>
+      <c r="O66" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="Q66" s="22"/>
-      <c r="R66" s="2"/>
+      <c r="Q66" s="39"/>
+      <c r="R66" s="40"/>
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="19">
@@ -6421,7 +6463,7 @@
         <v>27642.346875000003</v>
       </c>
       <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
+      <c r="I67" s="7"/>
       <c r="J67" s="15">
         <v>355036.5</v>
       </c>
@@ -6510,7 +6552,7 @@
         <v>9694.7296875000011</v>
       </c>
       <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
+      <c r="I69" s="7"/>
       <c r="J69" s="15">
         <v>80136.81</v>
       </c>
@@ -6593,7 +6635,7 @@
         <v>19355.675625000003</v>
       </c>
       <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
+      <c r="I71" s="7"/>
       <c r="J71" s="15">
         <v>273885.3</v>
       </c>
@@ -6719,7 +6761,7 @@
         <v>35231.625</v>
       </c>
       <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
+      <c r="I74" s="7"/>
       <c r="J74" s="15">
         <v>507195</v>
       </c>
@@ -6796,7 +6838,7 @@
         <v>18116.777250000003</v>
       </c>
       <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
+      <c r="I76" s="7"/>
       <c r="J76" s="15">
         <v>253597.5</v>
       </c>
@@ -6833,7 +6875,7 @@
         <v>16996.845937500002</v>
       </c>
       <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
+      <c r="I77" s="7"/>
       <c r="J77" s="15">
         <v>202878</v>
       </c>
@@ -6870,7 +6912,7 @@
         <v>20135.115000000002</v>
       </c>
       <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
+      <c r="I78" s="7"/>
       <c r="J78" s="15">
         <v>223165.8</v>
       </c>
@@ -7399,7 +7441,7 @@
         <v>30719.081250000003</v>
       </c>
       <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
+      <c r="I91" s="7"/>
       <c r="J91" s="15">
         <v>355036.5</v>
       </c>
@@ -7482,7 +7524,7 @@
         <v>11356.166250000002</v>
       </c>
       <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
+      <c r="I93" s="7"/>
       <c r="J93" s="15">
         <v>71007.3</v>
       </c>
@@ -7599,7 +7641,7 @@
         <v>12258.675000000001</v>
       </c>
       <c r="H96" s="9"/>
-      <c r="I96" s="9"/>
+      <c r="I96" s="7"/>
       <c r="J96" s="15">
         <v>202878</v>
       </c>
@@ -7756,7 +7798,7 @@
         <v>18970.058250000002</v>
       </c>
       <c r="H100" s="9"/>
-      <c r="I100" s="9"/>
+      <c r="I100" s="7"/>
       <c r="J100" s="15">
         <v>71007.3</v>
       </c>
@@ -7793,7 +7835,7 @@
         <v>22575.990937500002</v>
       </c>
       <c r="H101" s="9"/>
-      <c r="I101" s="9"/>
+      <c r="I101" s="7"/>
       <c r="J101" s="15">
         <v>304317</v>
       </c>
@@ -8247,42 +8289,42 @@
       <c r="Q112" s="22"/>
       <c r="R112" s="2"/>
     </row>
-    <row r="113" spans="1:18" ht="15" customHeight="1">
-      <c r="A113" s="19">
+    <row r="113" spans="1:18" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A113" s="33">
         <v>111</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="B113" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="C113" s="14" t="s">
+      <c r="C113" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D113" s="13" t="s">
+      <c r="D113" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E113" s="18">
+      <c r="E113" s="36">
         <v>19917</v>
       </c>
-      <c r="F113" s="9">
+      <c r="F113" s="37">
         <v>37803</v>
       </c>
-      <c r="G113" s="15">
+      <c r="G113" s="38">
         <v>22924.687500000004</v>
       </c>
-      <c r="H113" s="9"/>
-      <c r="I113" s="9"/>
-      <c r="J113" s="15">
+      <c r="H113" s="37"/>
+      <c r="I113" s="50"/>
+      <c r="J113" s="38">
         <v>405756</v>
       </c>
-      <c r="K113" s="15">
+      <c r="K113" s="38">
         <f t="shared" ref="K113:K114" si="3">G113</f>
         <v>22924.687500000004</v>
       </c>
-      <c r="M113" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q113" s="22"/>
-      <c r="R113" s="2"/>
+      <c r="M113" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="39"/>
+      <c r="R113" s="40"/>
     </row>
     <row r="114" spans="1:18" ht="15" customHeight="1">
       <c r="A114" s="19">
@@ -8307,7 +8349,7 @@
         <v>20279.721515625002</v>
       </c>
       <c r="H114" s="9"/>
-      <c r="I114" s="9"/>
+      <c r="I114" s="7"/>
       <c r="J114" s="15">
         <v>273885.3</v>
       </c>
@@ -8384,7 +8426,7 @@
         <v>13899.6</v>
       </c>
       <c r="H116" s="9"/>
-      <c r="I116" s="4"/>
+      <c r="I116" s="51"/>
       <c r="J116" s="15">
         <v>152158.5</v>
       </c>
@@ -8428,7 +8470,7 @@
         <v>14822.620312500001</v>
       </c>
       <c r="H117" s="9"/>
-      <c r="I117" s="9"/>
+      <c r="I117" s="7"/>
       <c r="J117" s="15">
         <v>131870.69999999998</v>
       </c>
@@ -8482,79 +8524,79 @@
       <c r="Q118" s="22"/>
       <c r="R118" s="2"/>
     </row>
-    <row r="119" spans="1:18" ht="15" customHeight="1">
-      <c r="A119" s="19">
+    <row r="119" spans="1:18" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A119" s="33">
         <v>117</v>
       </c>
-      <c r="B119" s="14" t="s">
+      <c r="B119" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="C119" s="14" t="s">
+      <c r="C119" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="D119" s="13" t="s">
+      <c r="D119" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E119" s="18">
+      <c r="E119" s="36">
         <v>19589</v>
       </c>
-      <c r="F119" s="9">
+      <c r="F119" s="37">
         <v>38266</v>
       </c>
-      <c r="G119" s="15">
+      <c r="G119" s="38">
         <v>19745.395312500001</v>
       </c>
-      <c r="H119" s="9"/>
-      <c r="I119" s="9"/>
-      <c r="J119" s="15">
+      <c r="H119" s="37"/>
+      <c r="I119" s="50"/>
+      <c r="J119" s="38">
         <v>167786.36408987376</v>
       </c>
-      <c r="K119" s="15">
+      <c r="K119" s="38">
         <f t="shared" ref="K119:K121" si="5">G119</f>
         <v>19745.395312500001</v>
       </c>
-      <c r="M119" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q119" s="22"/>
-      <c r="R119" s="2"/>
-    </row>
-    <row r="120" spans="1:18" ht="15" customHeight="1">
-      <c r="A120" s="19">
+      <c r="M119" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="39"/>
+      <c r="R119" s="40"/>
+    </row>
+    <row r="120" spans="1:18" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A120" s="33">
         <v>118</v>
       </c>
-      <c r="B120" s="14" t="s">
+      <c r="B120" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="C120" s="14" t="s">
+      <c r="C120" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="D120" s="13" t="s">
+      <c r="D120" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E120" s="18">
+      <c r="E120" s="36">
         <v>19400</v>
       </c>
-      <c r="F120" s="9">
+      <c r="F120" s="37">
         <v>39239</v>
       </c>
-      <c r="G120" s="15">
+      <c r="G120" s="38">
         <v>14145.738750000002</v>
       </c>
-      <c r="H120" s="9"/>
-      <c r="I120" s="9"/>
-      <c r="J120" s="15">
+      <c r="H120" s="37"/>
+      <c r="I120" s="50"/>
+      <c r="J120" s="38">
         <v>159189.46858261671</v>
       </c>
-      <c r="K120" s="15">
+      <c r="K120" s="38">
         <f t="shared" si="5"/>
         <v>14145.738750000002</v>
       </c>
-      <c r="M120" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q120" s="22"/>
-      <c r="R120" s="2"/>
+      <c r="M120" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="39"/>
+      <c r="R120" s="40"/>
     </row>
     <row r="121" spans="1:18" ht="15" customHeight="1">
       <c r="A121" s="19">
@@ -8579,7 +8621,7 @@
         <v>17899.354687500003</v>
       </c>
       <c r="H121" s="9"/>
-      <c r="I121" s="9"/>
+      <c r="I121" s="7"/>
       <c r="J121" s="15">
         <v>56389.134484590744</v>
       </c>
@@ -8673,42 +8715,42 @@
       <c r="Q123" s="22"/>
       <c r="R123" s="2"/>
     </row>
-    <row r="124" spans="1:18" ht="15" customHeight="1">
-      <c r="A124" s="19">
+    <row r="124" spans="1:18" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A124" s="33">
         <v>122</v>
       </c>
-      <c r="B124" s="14" t="s">
+      <c r="B124" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C124" s="14" t="s">
+      <c r="C124" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="D124" s="13" t="s">
+      <c r="D124" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E124" s="18">
+      <c r="E124" s="36">
         <v>19483</v>
       </c>
-      <c r="F124" s="9">
+      <c r="F124" s="37">
         <v>37803</v>
       </c>
-      <c r="G124" s="15">
+      <c r="G124" s="38">
         <v>22514.456250000003</v>
       </c>
-      <c r="H124" s="9"/>
-      <c r="I124" s="9"/>
-      <c r="J124" s="15">
+      <c r="H124" s="37"/>
+      <c r="I124" s="50"/>
+      <c r="J124" s="38">
         <v>332463.75561803876</v>
       </c>
-      <c r="K124" s="15">
+      <c r="K124" s="38">
         <f>G124</f>
         <v>22514.456250000003</v>
       </c>
-      <c r="M124" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q124" s="22"/>
-      <c r="R124" s="2"/>
+      <c r="M124" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="39"/>
+      <c r="R124" s="40"/>
     </row>
     <row r="125" spans="1:18" ht="15" customHeight="1">
       <c r="A125" s="19">
@@ -8830,42 +8872,42 @@
       <c r="Q127" s="22"/>
       <c r="R127" s="2"/>
     </row>
-    <row r="128" spans="1:18" ht="15" customHeight="1">
-      <c r="A128" s="19">
+    <row r="128" spans="1:18" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A128" s="41">
         <v>126</v>
       </c>
-      <c r="B128" s="17" t="s">
+      <c r="B128" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="C128" s="17" t="s">
+      <c r="C128" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="D128" s="16" t="s">
+      <c r="D128" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E128" s="18">
+      <c r="E128" s="44">
         <v>23815</v>
       </c>
-      <c r="F128" s="9">
+      <c r="F128" s="45">
         <v>42063</v>
       </c>
-      <c r="G128" s="15">
-        <v>7438.4578125000007</v>
-      </c>
-      <c r="H128" s="9"/>
-      <c r="I128" s="9"/>
-      <c r="J128" s="15">
+      <c r="G128" s="46">
+        <v>7438.4578124999998</v>
+      </c>
+      <c r="H128" s="45"/>
+      <c r="I128" s="52"/>
+      <c r="J128" s="46">
         <v>16864.488882341207</v>
       </c>
-      <c r="K128" s="15">
+      <c r="K128" s="46">
         <f t="shared" ref="K128:K132" si="6">G128</f>
-        <v>7438.4578125000007</v>
-      </c>
-      <c r="M128" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q128" s="22"/>
-      <c r="R128" s="2"/>
+        <v>7438.4578124999998</v>
+      </c>
+      <c r="M128" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="48"/>
+      <c r="R128" s="49"/>
     </row>
     <row r="129" spans="1:18">
       <c r="A129" s="19">
@@ -8890,7 +8932,7 @@
         <v>7746.1312500000004</v>
       </c>
       <c r="H129" s="9"/>
-      <c r="I129" s="9"/>
+      <c r="I129" s="7"/>
       <c r="J129" s="15">
         <v>36000</v>
       </c>
@@ -8933,7 +8975,7 @@
         <v>7438.4578125000007</v>
       </c>
       <c r="H130" s="9"/>
-      <c r="I130" s="9"/>
+      <c r="I130" s="7"/>
       <c r="J130" s="15">
         <v>36000</v>
       </c>
@@ -8976,7 +9018,7 @@
         <v>8156.3625000000011</v>
       </c>
       <c r="H131" s="9"/>
-      <c r="I131" s="9"/>
+      <c r="I131" s="7"/>
       <c r="J131" s="15">
         <v>19744.711988357249</v>
       </c>
@@ -9013,7 +9055,7 @@
         <v>8412.7570312500011</v>
       </c>
       <c r="H132" s="9"/>
-      <c r="I132" s="9"/>
+      <c r="I132" s="7"/>
       <c r="J132" s="15">
         <v>20210.48597508555</v>
       </c>
@@ -9090,7 +9132,7 @@
         <v>7951.2468750000007</v>
       </c>
       <c r="H134" s="9"/>
-      <c r="I134" s="9"/>
+      <c r="I134" s="7"/>
       <c r="J134" s="15">
         <v>19060.756944699526</v>
       </c>
@@ -9167,7 +9209,7 @@
         <v>7951.2468750000007</v>
       </c>
       <c r="H136" s="9"/>
-      <c r="I136" s="9"/>
+      <c r="I136" s="7"/>
       <c r="J136" s="15">
         <v>25612.313737217894</v>
       </c>
@@ -9204,7 +9246,7 @@
         <v>12258.675000000001</v>
       </c>
       <c r="H137" s="9"/>
-      <c r="I137" s="9"/>
+      <c r="I137" s="7"/>
       <c r="J137" s="15">
         <v>36552.651337351621</v>
       </c>
@@ -9241,7 +9283,7 @@
         <v>8258.9203125000004</v>
       </c>
       <c r="H138" s="9"/>
-      <c r="I138" s="9"/>
+      <c r="I138" s="7"/>
       <c r="J138" s="15">
         <v>18865.61423263311</v>
       </c>
@@ -9278,7 +9320,7 @@
         <v>11720.246484375</v>
       </c>
       <c r="H139" s="9"/>
-      <c r="I139" s="9"/>
+      <c r="I139" s="7"/>
       <c r="J139" s="15">
         <v>48983.553605747053</v>
       </c>
@@ -9395,7 +9437,7 @@
         <v>8361.4781250000015</v>
       </c>
       <c r="H142" s="9"/>
-      <c r="I142" s="9"/>
+      <c r="I142" s="7"/>
       <c r="J142" s="15">
         <v>10661.182806758536</v>
       </c>
@@ -9432,7 +9474,7 @@
         <v>7438.4578125000007</v>
       </c>
       <c r="H143" s="9"/>
-      <c r="I143" s="9"/>
+      <c r="I143" s="7"/>
       <c r="J143" s="15">
         <v>24000</v>
       </c>
@@ -9475,7 +9517,7 @@
         <v>11233.096875000001</v>
       </c>
       <c r="H144" s="9"/>
-      <c r="I144" s="9"/>
+      <c r="I144" s="7"/>
       <c r="J144" s="15">
         <v>11998.563026036943</v>
       </c>
@@ -9512,7 +9554,7 @@
         <v>7746.1312500000004</v>
       </c>
       <c r="H145" s="9"/>
-      <c r="I145" s="9"/>
+      <c r="I145" s="7"/>
       <c r="J145" s="15">
         <v>4416.5873540904122</v>
       </c>
@@ -9589,7 +9631,7 @@
         <v>7643.5734375000002</v>
       </c>
       <c r="H147" s="9"/>
-      <c r="I147" s="9"/>
+      <c r="I147" s="7"/>
       <c r="J147" s="15">
         <v>24000</v>
       </c>
@@ -9632,7 +9674,7 @@
         <v>11489.491406250001</v>
       </c>
       <c r="H148" s="9"/>
-      <c r="I148" s="9"/>
+      <c r="I148" s="7"/>
       <c r="J148" s="15">
         <v>11129.641892991816</v>
       </c>
@@ -9669,7 +9711,7 @@
         <v>12771.464062500001</v>
       </c>
       <c r="H149" s="9"/>
-      <c r="I149" s="9"/>
+      <c r="I149" s="7"/>
       <c r="J149" s="15">
         <v>12656.966624583238</v>
       </c>
@@ -9706,7 +9748,7 @@
         <v>10207.518750000001</v>
       </c>
       <c r="H150" s="9"/>
-      <c r="I150" s="9"/>
+      <c r="I150" s="7"/>
       <c r="J150" s="15">
         <v>10505.294147241761</v>
       </c>
@@ -9743,7 +9785,7 @@
         <v>7541.0156250000009</v>
       </c>
       <c r="H151" s="9"/>
-      <c r="I151" s="9"/>
+      <c r="I151" s="7"/>
       <c r="J151" s="15">
         <v>6507.419872185641</v>
       </c>
@@ -9780,7 +9822,7 @@
         <v>7746.1312500000004</v>
       </c>
       <c r="H152" s="9"/>
-      <c r="I152" s="9"/>
+      <c r="I152" s="7"/>
       <c r="J152" s="15">
         <v>6719.3707338223667</v>
       </c>
@@ -9805,8 +9847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9974,7 +10016,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="32">
-        <v>2.3857999999999997E-2</v>
+        <v>2.3858000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="28.8">

--- a/data8.xlsx
+++ b/data8.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="dis" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$2:$R$152</definedName>
@@ -1579,7 +1578,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="89">
+  <fills count="88">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2050,12 +2049,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2965,17 +2958,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="96" fillId="86" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="86" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="86" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="96" fillId="86" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="86" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="86" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="86" borderId="0" xfId="378" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="87" borderId="0" xfId="378" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="86" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2992,26 +2977,34 @@
     <xf numFmtId="1" fontId="76" fillId="86" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="88" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="87" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="88" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="87" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="88" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="76" fillId="88" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="87" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="76" fillId="87" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="88" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="88" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="88" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="76" fillId="88" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="87" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="87" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="87" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="76" fillId="87" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="86" borderId="15" xfId="378" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="96" fillId="86" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="86" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="96" fillId="86" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="86" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="379">
     <cellStyle name="$" xfId="2"/>
@@ -3691,8 +3684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:R152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K151" sqref="K151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5628,41 +5621,41 @@
       <c r="R47" s="2"/>
     </row>
     <row r="48" spans="1:18" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="33">
+      <c r="A48" s="27">
         <v>46</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="35" t="s">
+      <c r="D48" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="36">
+      <c r="E48" s="30">
         <v>21268</v>
       </c>
-      <c r="F48" s="37">
+      <c r="F48" s="31">
         <v>35400</v>
       </c>
-      <c r="G48" s="38">
+      <c r="G48" s="32">
         <v>16360.987500000001</v>
       </c>
-      <c r="H48" s="37"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="38">
+      <c r="H48" s="31"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="32">
         <v>355036.5</v>
       </c>
-      <c r="K48" s="38">
+      <c r="K48" s="32">
         <f>G48</f>
         <v>16360.987500000001</v>
       </c>
-      <c r="M48" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="39"/>
-      <c r="R48" s="40"/>
+      <c r="M48" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="34"/>
     </row>
     <row r="49" spans="1:18" ht="15" customHeight="1">
       <c r="A49" s="19">
@@ -6401,44 +6394,44 @@
       <c r="R65" s="2"/>
     </row>
     <row r="66" spans="1:18" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A66" s="33">
+      <c r="A66" s="27">
         <v>64</v>
       </c>
-      <c r="B66" s="34" t="s">
+      <c r="B66" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C66" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D66" s="35" t="s">
+      <c r="D66" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E66" s="36">
+      <c r="E66" s="30">
         <v>19508</v>
       </c>
-      <c r="F66" s="37">
+      <c r="F66" s="31">
         <v>37226</v>
       </c>
-      <c r="G66" s="38">
+      <c r="G66" s="32">
         <v>22104.225000000002</v>
       </c>
-      <c r="H66" s="37"/>
-      <c r="I66" s="50"/>
-      <c r="J66" s="38">
+      <c r="H66" s="31"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="32">
         <v>253597.5</v>
       </c>
-      <c r="K66" s="38">
+      <c r="K66" s="32">
         <f t="shared" ref="K66:K67" si="0">G66</f>
         <v>22104.225000000002</v>
       </c>
-      <c r="M66" s="38">
+      <c r="M66" s="32">
         <v>0</v>
       </c>
       <c r="O66" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="Q66" s="39"/>
-      <c r="R66" s="40"/>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="34"/>
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="19">
@@ -8290,41 +8283,41 @@
       <c r="R112" s="2"/>
     </row>
     <row r="113" spans="1:18" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A113" s="33">
+      <c r="A113" s="27">
         <v>111</v>
       </c>
-      <c r="B113" s="34" t="s">
+      <c r="B113" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="C113" s="34" t="s">
+      <c r="C113" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D113" s="35" t="s">
+      <c r="D113" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E113" s="36">
+      <c r="E113" s="30">
         <v>19917</v>
       </c>
-      <c r="F113" s="37">
+      <c r="F113" s="31">
         <v>37803</v>
       </c>
-      <c r="G113" s="38">
+      <c r="G113" s="32">
         <v>22924.687500000004</v>
       </c>
-      <c r="H113" s="37"/>
-      <c r="I113" s="50"/>
-      <c r="J113" s="38">
+      <c r="H113" s="31"/>
+      <c r="I113" s="44"/>
+      <c r="J113" s="32">
         <v>405756</v>
       </c>
-      <c r="K113" s="38">
+      <c r="K113" s="32">
         <f t="shared" ref="K113:K114" si="3">G113</f>
         <v>22924.687500000004</v>
       </c>
-      <c r="M113" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q113" s="39"/>
-      <c r="R113" s="40"/>
+      <c r="M113" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="33"/>
+      <c r="R113" s="34"/>
     </row>
     <row r="114" spans="1:18" ht="15" customHeight="1">
       <c r="A114" s="19">
@@ -8426,7 +8419,7 @@
         <v>13899.6</v>
       </c>
       <c r="H116" s="9"/>
-      <c r="I116" s="51"/>
+      <c r="I116" s="45"/>
       <c r="J116" s="15">
         <v>152158.5</v>
       </c>
@@ -8525,78 +8518,78 @@
       <c r="R118" s="2"/>
     </row>
     <row r="119" spans="1:18" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A119" s="33">
+      <c r="A119" s="27">
         <v>117</v>
       </c>
-      <c r="B119" s="34" t="s">
+      <c r="B119" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C119" s="34" t="s">
+      <c r="C119" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="D119" s="35" t="s">
+      <c r="D119" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E119" s="36">
+      <c r="E119" s="30">
         <v>19589</v>
       </c>
-      <c r="F119" s="37">
+      <c r="F119" s="31">
         <v>38266</v>
       </c>
-      <c r="G119" s="38">
+      <c r="G119" s="32">
         <v>19745.395312500001</v>
       </c>
-      <c r="H119" s="37"/>
-      <c r="I119" s="50"/>
-      <c r="J119" s="38">
+      <c r="H119" s="31"/>
+      <c r="I119" s="44"/>
+      <c r="J119" s="32">
         <v>167786.36408987376</v>
       </c>
-      <c r="K119" s="38">
+      <c r="K119" s="32">
         <f t="shared" ref="K119:K121" si="5">G119</f>
         <v>19745.395312500001</v>
       </c>
-      <c r="M119" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q119" s="39"/>
-      <c r="R119" s="40"/>
+      <c r="M119" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="33"/>
+      <c r="R119" s="34"/>
     </row>
     <row r="120" spans="1:18" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A120" s="33">
+      <c r="A120" s="27">
         <v>118</v>
       </c>
-      <c r="B120" s="34" t="s">
+      <c r="B120" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="C120" s="34" t="s">
+      <c r="C120" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="D120" s="35" t="s">
+      <c r="D120" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E120" s="36">
+      <c r="E120" s="30">
         <v>19400</v>
       </c>
-      <c r="F120" s="37">
+      <c r="F120" s="31">
         <v>39239</v>
       </c>
-      <c r="G120" s="38">
+      <c r="G120" s="32">
         <v>14145.738750000002</v>
       </c>
-      <c r="H120" s="37"/>
-      <c r="I120" s="50"/>
-      <c r="J120" s="38">
+      <c r="H120" s="31"/>
+      <c r="I120" s="44"/>
+      <c r="J120" s="32">
         <v>159189.46858261671</v>
       </c>
-      <c r="K120" s="38">
+      <c r="K120" s="32">
         <f t="shared" si="5"/>
         <v>14145.738750000002</v>
       </c>
-      <c r="M120" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q120" s="39"/>
-      <c r="R120" s="40"/>
+      <c r="M120" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="33"/>
+      <c r="R120" s="34"/>
     </row>
     <row r="121" spans="1:18" ht="15" customHeight="1">
       <c r="A121" s="19">
@@ -8716,41 +8709,41 @@
       <c r="R123" s="2"/>
     </row>
     <row r="124" spans="1:18" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A124" s="33">
+      <c r="A124" s="27">
         <v>122</v>
       </c>
-      <c r="B124" s="34" t="s">
+      <c r="B124" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C124" s="34" t="s">
+      <c r="C124" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="D124" s="35" t="s">
+      <c r="D124" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E124" s="36">
+      <c r="E124" s="30">
         <v>19483</v>
       </c>
-      <c r="F124" s="37">
+      <c r="F124" s="31">
         <v>37803</v>
       </c>
-      <c r="G124" s="38">
+      <c r="G124" s="32">
         <v>22514.456250000003</v>
       </c>
-      <c r="H124" s="37"/>
-      <c r="I124" s="50"/>
-      <c r="J124" s="38">
+      <c r="H124" s="31"/>
+      <c r="I124" s="44"/>
+      <c r="J124" s="32">
         <v>332463.75561803876</v>
       </c>
-      <c r="K124" s="38">
+      <c r="K124" s="32">
         <f>G124</f>
         <v>22514.456250000003</v>
       </c>
-      <c r="M124" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q124" s="39"/>
-      <c r="R124" s="40"/>
+      <c r="M124" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="33"/>
+      <c r="R124" s="34"/>
     </row>
     <row r="125" spans="1:18" ht="15" customHeight="1">
       <c r="A125" s="19">
@@ -8872,42 +8865,42 @@
       <c r="Q127" s="22"/>
       <c r="R127" s="2"/>
     </row>
-    <row r="128" spans="1:18" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A128" s="41">
+    <row r="128" spans="1:18" s="41" customFormat="1" ht="15" customHeight="1">
+      <c r="A128" s="35">
         <v>126</v>
       </c>
-      <c r="B128" s="42" t="s">
+      <c r="B128" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="C128" s="42" t="s">
+      <c r="C128" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="D128" s="43" t="s">
+      <c r="D128" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E128" s="44">
+      <c r="E128" s="38">
         <v>23815</v>
       </c>
-      <c r="F128" s="45">
+      <c r="F128" s="39">
         <v>42063</v>
       </c>
-      <c r="G128" s="46">
+      <c r="G128" s="40">
         <v>7438.4578124999998</v>
       </c>
-      <c r="H128" s="45"/>
-      <c r="I128" s="52"/>
-      <c r="J128" s="46">
+      <c r="H128" s="39"/>
+      <c r="I128" s="46"/>
+      <c r="J128" s="40">
         <v>16864.488882341207</v>
       </c>
-      <c r="K128" s="46">
+      <c r="K128" s="40">
         <f t="shared" ref="K128:K132" si="6">G128</f>
         <v>7438.4578124999998</v>
       </c>
-      <c r="M128" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q128" s="48"/>
-      <c r="R128" s="49"/>
+      <c r="M128" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="42"/>
+      <c r="R128" s="43"/>
     </row>
     <row r="129" spans="1:18">
       <c r="A129" s="19">
@@ -9847,8 +9840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:N53"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9859,8 +9852,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14">
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
     </row>
     <row r="3" spans="2:14" ht="28.8">
       <c r="B3" s="20"/>
@@ -9876,10 +9869,10 @@
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="49" t="s">
         <v>271</v>
       </c>
-      <c r="L3" s="23"/>
+      <c r="L3" s="47"/>
       <c r="N3" s="21" t="s">
         <v>284</v>
       </c>
@@ -9893,40 +9886,40 @@
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="24" t="s">
         <v>266</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="23"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="47"/>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="31">
+      <c r="B5" s="47">
         <v>1</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="48">
         <v>1.8146499999999999E-2</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="26">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="26">
         <v>0.2</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="52">
         <v>0.04</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="47" t="s">
         <v>280</v>
       </c>
       <c r="N5" s="1" t="s">
@@ -9934,43 +9927,43 @@
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="31">
+      <c r="B6" s="47">
         <v>2</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="48">
         <v>1.98745E-2</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="26">
         <v>0.05</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="26">
         <v>0.13</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="52">
         <v>0.02</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="47" t="s">
         <v>283</v>
       </c>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="2:14" ht="28.8">
-      <c r="B7" s="31">
+      <c r="B7" s="47">
         <v>3</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="48">
         <v>2.1090000000000001E-2</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="26">
         <v>0.04</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="26">
         <v>0.1</v>
       </c>
       <c r="N7" s="1" t="s">
@@ -9978,414 +9971,402 @@
       </c>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="31">
+      <c r="B8" s="47">
         <v>4</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="48">
         <v>2.2095500000000001E-2</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="26">
         <v>0.03</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="26">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="31">
+      <c r="B9" s="47">
         <v>5</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="48">
         <v>2.3014999999999997E-2</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="26">
         <v>0.02</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="26">
         <v>0.03</v>
       </c>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="31">
+      <c r="B10" s="47">
         <v>6</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="48">
         <v>2.3858000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="28.8">
-      <c r="B11" s="31">
+      <c r="B11" s="47">
         <v>7</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="48">
         <v>2.4624999999999998E-2</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="49" t="s">
         <v>281</v>
       </c>
       <c r="L11" s="21"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="31">
+      <c r="B12" s="47">
         <v>8</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="48">
         <v>2.5346E-2</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="50">
         <v>43831</v>
       </c>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="31">
+      <c r="B13" s="47">
         <v>9</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="48">
         <v>2.6036E-2</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="51" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="31">
+      <c r="B14" s="47">
         <v>10</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="48">
         <v>2.6703999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="2:14">
-      <c r="B15" s="31">
+      <c r="B15" s="47">
         <v>11</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="48">
         <v>2.7355000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="31">
+      <c r="B16" s="47">
         <v>12</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="48">
         <v>2.7993500000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="31">
+      <c r="B17" s="47">
         <v>13</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="48">
         <v>2.86205E-2</v>
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="31">
+      <c r="B18" s="47">
         <v>14</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="48">
         <v>2.9240499999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="31">
+      <c r="B19" s="47">
         <v>15</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="48">
         <v>2.9854000000000002E-2</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="31">
+      <c r="B20" s="47">
         <v>16</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="48">
         <v>3.0467500000000005E-2</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="31">
+      <c r="B21" s="47">
         <v>17</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="48">
         <v>3.1081000000000008E-2</v>
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="31">
+      <c r="B22" s="47">
         <v>18</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="48">
         <v>3.1694500000000014E-2</v>
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="31">
+      <c r="B23" s="47">
         <v>19</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="48">
         <v>3.2308000000000017E-2</v>
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="31">
+      <c r="B24" s="47">
         <v>20</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="48">
         <v>3.292150000000002E-2</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="31">
+      <c r="B25" s="47">
         <v>21</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="48">
         <v>3.3535000000000023E-2</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="31">
+      <c r="B26" s="47">
         <v>22</v>
       </c>
-      <c r="C26" s="32">
+      <c r="C26" s="48">
         <v>3.4148500000000026E-2</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="31">
+      <c r="B27" s="47">
         <v>23</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="48">
         <v>3.4762000000000029E-2</v>
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="31">
+      <c r="B28" s="47">
         <v>24</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C28" s="48">
         <v>3.5375500000000032E-2</v>
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="31">
+      <c r="B29" s="47">
         <v>25</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="48">
         <v>3.5989000000000035E-2</v>
       </c>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="31">
+      <c r="B30" s="47">
         <v>26</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C30" s="48">
         <v>3.6602500000000038E-2</v>
       </c>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="31">
+      <c r="B31" s="47">
         <v>27</v>
       </c>
-      <c r="C31" s="32">
+      <c r="C31" s="48">
         <v>3.7216000000000041E-2</v>
       </c>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="31">
+      <c r="B32" s="47">
         <v>28</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C32" s="48">
         <v>3.7829500000000044E-2</v>
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="31">
+      <c r="B33" s="47">
         <v>29</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="48">
         <v>3.8443000000000047E-2</v>
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="31">
+      <c r="B34" s="47">
         <v>30</v>
       </c>
-      <c r="C34" s="32">
+      <c r="C34" s="48">
         <v>3.905650000000005E-2</v>
       </c>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="31">
+      <c r="B35" s="47">
         <v>31</v>
       </c>
-      <c r="C35" s="32">
+      <c r="C35" s="48">
         <v>3.9670000000000052E-2</v>
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="31">
+      <c r="B36" s="47">
         <v>32</v>
       </c>
-      <c r="C36" s="32">
+      <c r="C36" s="48">
         <v>4.0283500000000055E-2</v>
       </c>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="31">
+      <c r="B37" s="47">
         <v>33</v>
       </c>
-      <c r="C37" s="32">
+      <c r="C37" s="48">
         <v>4.0897000000000058E-2</v>
       </c>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="31">
+      <c r="B38" s="47">
         <v>34</v>
       </c>
-      <c r="C38" s="32">
+      <c r="C38" s="48">
         <v>4.1510500000000061E-2</v>
       </c>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="31">
+      <c r="B39" s="47">
         <v>35</v>
       </c>
-      <c r="C39" s="32">
+      <c r="C39" s="48">
         <v>4.2124000000000064E-2</v>
       </c>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="31">
+      <c r="B40" s="47">
         <v>36</v>
       </c>
-      <c r="C40" s="32">
+      <c r="C40" s="48">
         <v>4.2737500000000067E-2</v>
       </c>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="31">
+      <c r="B41" s="47">
         <v>37</v>
       </c>
-      <c r="C41" s="32">
+      <c r="C41" s="48">
         <v>4.335100000000007E-2</v>
       </c>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="31">
+      <c r="B42" s="47">
         <v>38</v>
       </c>
-      <c r="C42" s="32">
+      <c r="C42" s="48">
         <v>4.3964500000000073E-2</v>
       </c>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="31">
+      <c r="B43" s="47">
         <v>39</v>
       </c>
-      <c r="C43" s="32">
+      <c r="C43" s="48">
         <v>4.4578000000000076E-2</v>
       </c>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="31">
+      <c r="B44" s="47">
         <v>40</v>
       </c>
-      <c r="C44" s="32">
+      <c r="C44" s="48">
         <v>4.5191500000000079E-2</v>
       </c>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="31">
+      <c r="B45" s="47">
         <v>41</v>
       </c>
-      <c r="C45" s="32">
+      <c r="C45" s="48">
         <v>4.5805000000000082E-2</v>
       </c>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="31">
+      <c r="B46" s="47">
         <v>42</v>
       </c>
-      <c r="C46" s="32">
+      <c r="C46" s="48">
         <v>4.6418500000000085E-2</v>
       </c>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="31">
+      <c r="B47" s="47">
         <v>43</v>
       </c>
-      <c r="C47" s="32">
+      <c r="C47" s="48">
         <v>4.7032000000000088E-2</v>
       </c>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="31">
+      <c r="B48" s="47">
         <v>44</v>
       </c>
-      <c r="C48" s="32">
+      <c r="C48" s="48">
         <v>4.7645500000000091E-2</v>
       </c>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="31">
+      <c r="B49" s="47">
         <v>45</v>
       </c>
-      <c r="C49" s="32">
+      <c r="C49" s="48">
         <v>4.8259000000000093E-2</v>
       </c>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="31">
+      <c r="B50" s="47">
         <v>46</v>
       </c>
-      <c r="C50" s="32">
+      <c r="C50" s="48">
         <v>4.8872500000000096E-2</v>
       </c>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="23">
+      <c r="B51" s="47">
         <v>47</v>
       </c>
-      <c r="C51" s="30">
+      <c r="C51" s="48">
         <v>4.9486000000000099E-2</v>
       </c>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="23">
+      <c r="B52" s="47">
         <v>48</v>
       </c>
-      <c r="C52" s="30">
+      <c r="C52" s="48">
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
     <row r="53" spans="2:3">
-      <c r="B53" s="23">
+      <c r="B53" s="47">
         <v>49</v>
       </c>
-      <c r="C53" s="30">
+      <c r="C53" s="48">
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>